--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950C335-1B72-4738-8F2F-1A34788C348F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CA2D8-8459-4FC0-9878-D3F1E2F23193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,34 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>价格</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>动能装甲</t>
+  </si>
+  <si>
+    <t>你每使用一张装备卡，便提升1点能量回复速度</t>
+  </si>
+  <si>
+    <t>打孔器</t>
+  </si>
+  <si>
+    <t>每使用10张手牌，便造成5点伤害。</t>
+  </si>
+  <si>
+    <t>火焰宝珠</t>
+  </si>
+  <si>
+    <t>每使用1张手牌，便造成1点火焰伤害</t>
+  </si>
+  <si>
+    <t>能量块</t>
+  </si>
+  <si>
+    <t>每使用1张手牌，便回复1点能量</t>
   </si>
 </sst>
 </file>
@@ -377,19 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,18 +419,83 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CA2D8-8459-4FC0-9878-D3F1E2F23193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DC4D9-5721-43F0-B350-DC643514452E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>每使用1张手牌，便回复1点能量</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +432,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,8 +452,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -455,8 +469,11 @@
       <c r="E3">
         <v>100</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -469,8 +486,11 @@
       <c r="E4">
         <v>300</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -483,8 +503,11 @@
       <c r="E5">
         <v>200</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -496,6 +519,9 @@
       </c>
       <c r="E6">
         <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DC4D9-5721-43F0-B350-DC643514452E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBF2176-6CD5-48F1-9D84-C7C25A23A3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,19 @@
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Ability_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Ability_2</t>
+  </si>
+  <si>
+    <t>Icon_Ability_3</t>
+  </si>
+  <si>
+    <t>Icon_Ability_4</t>
   </si>
 </sst>
 </file>
@@ -411,10 +424,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -466,6 +483,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3">
         <v>100</v>
       </c>
@@ -483,6 +503,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
       <c r="E4">
         <v>300</v>
       </c>
@@ -500,6 +523,9 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
       <c r="E5">
         <v>200</v>
       </c>
@@ -516,6 +542,9 @@
       </c>
       <c r="C6" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
       <c r="E6">
         <v>50</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBF2176-6CD5-48F1-9D84-C7C25A23A3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF9D28-90A3-4159-8674-D419F46F4710}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,48 @@
   </si>
   <si>
     <t>Icon_Ability_4</t>
+  </si>
+  <si>
+    <t>进入战斗时即拥有100%能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸透镜</t>
+  </si>
+  <si>
+    <t>每次补牌时对敌人造成5点穿透伤害。</t>
+  </si>
+  <si>
+    <t>生锈的奖牌</t>
+  </si>
+  <si>
+    <t>每战胜一个敌人便会提高5点生命上限。</t>
+  </si>
+  <si>
+    <t>震撼登场</t>
+  </si>
+  <si>
+    <t>资本家的獠牙</t>
+  </si>
+  <si>
+    <t>每造成5点伤害便恢复1点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时回复2点生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,14 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
@@ -553,6 +596,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF9D28-90A3-4159-8674-D419F46F4710}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5432206-0950-42A4-ADA0-FD6EB92F7C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,27 +54,15 @@
     <t>price</t>
   </si>
   <si>
-    <t>动能装甲</t>
-  </si>
-  <si>
     <t>你每使用一张装备卡，便提升1点能量回复速度</t>
   </si>
   <si>
-    <t>打孔器</t>
-  </si>
-  <si>
     <t>每使用10张手牌，便造成5点伤害。</t>
   </si>
   <si>
-    <t>火焰宝珠</t>
-  </si>
-  <si>
     <t>每使用1张手牌，便造成1点火焰伤害</t>
   </si>
   <si>
-    <t>能量块</t>
-  </si>
-  <si>
     <t>每使用1张手牌，便回复1点能量</t>
   </si>
   <si>
@@ -103,24 +91,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凸透镜</t>
-  </si>
-  <si>
     <t>每次补牌时对敌人造成5点穿透伤害。</t>
   </si>
   <si>
-    <t>生锈的奖牌</t>
-  </si>
-  <si>
     <t>每战胜一个敌人便会提高5点生命上限。</t>
   </si>
   <si>
     <t>震撼登场</t>
   </si>
   <si>
-    <t>资本家的獠牙</t>
-  </si>
-  <si>
     <t>每造成5点伤害便恢复1点生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +117,34 @@
   </si>
   <si>
     <t>每次补牌时回复2点生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能装甲(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔器(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰宝珠(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量块(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸透镜(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的奖牌(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本家的獠牙(!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +473,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -513,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -521,13 +528,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -541,13 +548,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -561,13 +568,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -581,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -601,13 +608,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -621,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -641,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -661,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -681,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -701,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>250</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5432206-0950-42A4-ADA0-FD6EB92F7C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2088E0-7A70-4703-9398-C4B6A5C8A7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,91 +60,92 @@
     <t>每使用10张手牌，便造成5点伤害。</t>
   </si>
   <si>
+    <t>每使用1张手牌，便回复1点能量</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Ability_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Ability_2</t>
+  </si>
+  <si>
+    <t>Icon_Ability_3</t>
+  </si>
+  <si>
+    <t>Icon_Ability_4</t>
+  </si>
+  <si>
+    <t>进入战斗时即拥有100%能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时对敌人造成5点穿透伤害。</t>
+  </si>
+  <si>
+    <t>每战胜一个敌人便会提高5点生命上限。</t>
+  </si>
+  <si>
+    <t>震撼登场</t>
+  </si>
+  <si>
+    <t>每造成5点伤害便恢复1点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时回复2点生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔器(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰宝珠(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的奖牌(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本家的獠牙(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸透镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每使用1张手牌，便造成1点火焰伤害</t>
-  </si>
-  <si>
-    <t>每使用1张手牌，便回复1点能量</t>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Ability_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Ability_2</t>
-  </si>
-  <si>
-    <t>Icon_Ability_3</t>
-  </si>
-  <si>
-    <t>Icon_Ability_4</t>
-  </si>
-  <si>
-    <t>进入战斗时即拥有100%能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次补牌时对敌人造成5点穿透伤害。</t>
-  </si>
-  <si>
-    <t>每战胜一个敌人便会提高5点生命上限。</t>
-  </si>
-  <si>
-    <t>震撼登场</t>
-  </si>
-  <si>
-    <t>每造成5点伤害便恢复1点生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入战斗后昏迷敌人3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃罐头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次补牌时回复2点生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能装甲(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打孔器(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰宝珠(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量块(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凸透镜(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生锈的奖牌(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本家的獠牙(!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能装甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +474,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -520,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -528,13 +529,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -548,13 +549,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -568,13 +569,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -588,19 +589,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -608,13 +609,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -628,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -648,13 +649,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -668,13 +669,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -688,13 +689,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -708,13 +709,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>250</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2088E0-7A70-4703-9398-C4B6A5C8A7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF141D96-04C7-4697-BBCE-F4F74FB52C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>动能装甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气手环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束后回复10点生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,6 +732,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF141D96-04C7-4697-BBCE-F4F74FB52C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564953E-68D8-452F-86A3-CE3A3156A379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <t>每使用1张手牌，便回复1点能量</t>
   </si>
   <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>战斗结束后回复10点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -537,13 +537,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -557,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -577,13 +577,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -597,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -617,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -637,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -657,13 +657,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -677,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -697,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -717,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>250</v>
@@ -737,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>100</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564953E-68D8-452F-86A3-CE3A3156A379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -42,6 +31,9 @@
     <t>价格</t>
   </si>
   <si>
+    <t>级别</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -54,138 +46,452 @@
     <t>price</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>动能装甲</t>
+  </si>
+  <si>
     <t>你每使用一张装备卡，便提升1点能量回复速度</t>
   </si>
   <si>
+    <t>Icon_Ability_1</t>
+  </si>
+  <si>
+    <t>打孔器(!)</t>
+  </si>
+  <si>
     <t>每使用10张手牌，便造成5点伤害。</t>
   </si>
   <si>
+    <t>Icon_Ability_2</t>
+  </si>
+  <si>
+    <t>火焰宝珠(!)</t>
+  </si>
+  <si>
+    <t>每使用1张手牌，便造成1点火焰伤害</t>
+  </si>
+  <si>
+    <t>Icon_Ability_3</t>
+  </si>
+  <si>
+    <t>能量块</t>
+  </si>
+  <si>
     <t>每使用1张手牌，便回复1点能量</t>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Ability_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Ability_2</t>
-  </si>
-  <si>
-    <t>Icon_Ability_3</t>
-  </si>
-  <si>
     <t>Icon_Ability_4</t>
   </si>
   <si>
+    <t>充能护符</t>
+  </si>
+  <si>
     <t>进入战斗时即拥有100%能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸透镜</t>
   </si>
   <si>
     <t>每次补牌时对敌人造成5点穿透伤害。</t>
   </si>
   <si>
+    <t>樱桃罐头</t>
+  </si>
+  <si>
+    <t>每次补牌时回复2点生命值。</t>
+  </si>
+  <si>
+    <t>生锈的奖牌(!)</t>
+  </si>
+  <si>
     <t>每战胜一个敌人便会提高5点生命上限。</t>
   </si>
   <si>
     <t>震撼登场</t>
   </si>
   <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+  </si>
+  <si>
+    <t>资本家的獠牙(!)</t>
+  </si>
+  <si>
     <t>每造成5点伤害便恢复1点生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入战斗后昏迷敌人3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃罐头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次补牌时回复2点生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打孔器(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰宝珠(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生锈的奖牌(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本家的獠牙(!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凸透镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每使用1张手牌，便造成1点火焰伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能装甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>勇气手环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗结束后回复10点生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,24 +499,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,7 +851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -294,7 +886,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -468,31 +1060,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,61 +1096,61 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -572,18 +1159,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -592,58 +1179,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -652,35 +1239,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -692,38 +1279,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>250</v>
@@ -732,29 +1319,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A277075-697D-4336-9996-0562B19FDA79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F6083-79A1-4156-8D2A-BC259D85B310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,11 @@
     <t>勇气手环</t>
   </si>
   <si>
-    <t>战斗结束后回复10点生命值</t>
-  </si>
-  <si>
     <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束后回复4点生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +503,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -760,7 +761,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F6083-79A1-4156-8D2A-BC259D85B310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +14,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FF27C06A-39A2-49BB-A119-E7F073AA2AF5}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -40,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -73,6 +65,9 @@
     <t>价格</t>
   </si>
   <si>
+    <t>类别</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -139,7 +134,7 @@
     <t>樱桃罐头</t>
   </si>
   <si>
-    <t>每次补牌时回复2点生命值。</t>
+    <t>每次补牌时回复1点生命值。</t>
   </si>
   <si>
     <t>生锈的奖牌(!)</t>
@@ -163,19 +158,20 @@
     <t>勇气手环</t>
   </si>
   <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗结束后回复4点生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,34 +180,356 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -219,24 +537,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,26 +1098,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,41 +1134,41 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -573,18 +1177,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -593,18 +1197,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -613,18 +1217,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -633,18 +1237,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -653,18 +1257,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -673,18 +1277,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -693,18 +1297,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -713,18 +1317,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -733,18 +1337,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>250</v>
@@ -753,18 +1357,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -774,9 +1378,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14B82F-E0EC-4C14-911D-2832A6DBD647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="195" yWindow="8730" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -159,168 +165,60 @@
   </si>
   <si>
     <t>战斗结束后回复4点生命值</t>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Self</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,202 +232,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -537,310 +263,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1098,26 +539,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,8 +577,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1156,8 +603,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1177,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1197,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1217,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1237,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1257,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1277,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1296,8 +749,14 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1012</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1317,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1336,8 +795,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1357,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1378,9 +840,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14B82F-E0EC-4C14-911D-2832A6DBD647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50630DAC-8E9F-4FCB-82E6-28676E895402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="8730" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -206,6 +206,14 @@
       </rPr>
       <t>ID</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffNum</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +566,7 @@
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +591,11 @@
       <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,8 +620,11 @@
       <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -630,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -650,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -670,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -690,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -710,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -730,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -755,8 +769,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -776,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -798,8 +815,11 @@
       <c r="G11">
         <v>1011</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -819,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50630DAC-8E9F-4FCB-82E6-28676E895402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +68,15 @@
     <t>类别</t>
   </si>
   <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>效果目标</t>
+  </si>
+  <si>
+    <t>效果数量</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -89,93 +92,36 @@
     <t>level</t>
   </si>
   <si>
-    <t>动能装甲</t>
-  </si>
-  <si>
-    <t>你每使用一张装备卡，便提升1点能量回复速度</t>
-  </si>
-  <si>
-    <t>Icon_Ability_1</t>
-  </si>
-  <si>
-    <t>打孔器(!)</t>
-  </si>
-  <si>
-    <t>每使用10张手牌，便造成5点伤害。</t>
-  </si>
-  <si>
-    <t>Icon_Ability_2</t>
-  </si>
-  <si>
-    <t>火焰宝珠(!)</t>
-  </si>
-  <si>
-    <t>每使用1张手牌，便造成1点火焰伤害</t>
-  </si>
-  <si>
-    <t>Icon_Ability_3</t>
-  </si>
-  <si>
-    <t>能量块</t>
-  </si>
-  <si>
-    <t>每使用1张手牌，便回复1点能量</t>
-  </si>
-  <si>
-    <t>Icon_Ability_4</t>
-  </si>
-  <si>
-    <t>充能护符</t>
-  </si>
-  <si>
-    <t>进入战斗时即拥有100%能量</t>
-  </si>
-  <si>
-    <t>凸透镜</t>
-  </si>
-  <si>
-    <t>每次补牌时对敌人造成5点穿透伤害。</t>
-  </si>
-  <si>
-    <t>樱桃罐头</t>
-  </si>
-  <si>
-    <t>每次补牌时回复1点生命值。</t>
-  </si>
-  <si>
-    <t>生锈的奖牌(!)</t>
-  </si>
-  <si>
-    <t>每战胜一个敌人便会提高5点生命上限。</t>
-  </si>
-  <si>
-    <t>震撼登场</t>
-  </si>
-  <si>
-    <t>进入战斗后昏迷敌人3秒</t>
-  </si>
-  <si>
-    <t>资本家的獠牙(!)</t>
-  </si>
-  <si>
-    <t>每造成5点伤害便恢复1点生命</t>
-  </si>
-  <si>
-    <t>勇气手环</t>
-  </si>
-  <si>
-    <t>战斗结束后回复4点生命值</t>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>target</t>
     </r>
     <r>
@@ -183,50 +129,309 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Self</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>buff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>buffNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能装甲</t>
+  </si>
+  <si>
+    <t>你每使用一张装备卡，便提升1点能量回复速度</t>
+  </si>
+  <si>
+    <t>Icon_Ability_1</t>
+  </si>
+  <si>
+    <t>打孔器(!)</t>
+  </si>
+  <si>
+    <t>每使用10张手牌，便造成5点伤害。</t>
+  </si>
+  <si>
+    <t>Icon_Ability_2</t>
+  </si>
+  <si>
+    <t>火焰宝珠(!)</t>
+  </si>
+  <si>
+    <t>每使用1张手牌，便造成1点火焰伤害</t>
+  </si>
+  <si>
+    <t>Icon_Ability_3</t>
+  </si>
+  <si>
+    <t>能量块</t>
+  </si>
+  <si>
+    <t>每使用1张手牌，便回复1点能量</t>
+  </si>
+  <si>
+    <t>Icon_Ability_4</t>
+  </si>
+  <si>
+    <t>充能护符</t>
+  </si>
+  <si>
+    <t>进入战斗时即拥有100%能量</t>
+  </si>
+  <si>
+    <t>凸透镜</t>
+  </si>
+  <si>
+    <t>每次补牌时对敌人造成5点穿透伤害。</t>
+  </si>
+  <si>
+    <t>樱桃罐头</t>
+  </si>
+  <si>
+    <t>每次补牌时回复1点生命值。</t>
+  </si>
+  <si>
+    <t>生锈的奖牌(!)</t>
+  </si>
+  <si>
+    <t>每战胜一个敌人便会提高5点生命上限。</t>
+  </si>
+  <si>
+    <t>震撼登场</t>
+  </si>
+  <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+  </si>
+  <si>
+    <t>资本家的獠牙(!)</t>
+  </si>
+  <si>
+    <t>每造成5点伤害便恢复1点生命</t>
+  </si>
+  <si>
+    <t>勇气手环</t>
+  </si>
+  <si>
+    <t>战斗结束后回复4点生命值</t>
+  </si>
+  <si>
+    <t>玻璃大炮</t>
+  </si>
+  <si>
+    <t>遗物，攻击力+3，但所有牌消耗增加1</t>
+  </si>
+  <si>
+    <t>琉璃甲</t>
+  </si>
+  <si>
+    <t>遗物，获得护甲时回复2能量，但受到伤害会被昏迷</t>
+  </si>
+  <si>
+    <t>荆棘之心</t>
+  </si>
+  <si>
+    <t>遗物，格挡时造成7点伤害，但能量回复-1</t>
+  </si>
+  <si>
+    <t>诅咒之书</t>
+  </si>
+  <si>
+    <t>遗物，你的暴击率提高60%，但战斗中每2秒都会失去生命</t>
+  </si>
+  <si>
+    <t>神力代价</t>
+  </si>
+  <si>
+    <t>遗物，战斗开始第8秒时获得一张“天降神锤”，但你的耐力-1</t>
+  </si>
+  <si>
+    <t>远古盟约</t>
+  </si>
+  <si>
+    <t>遗物，造成伤害时你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
+  </si>
+  <si>
+    <t>中和法典</t>
+  </si>
+  <si>
+    <t>遗物，耐力+1，但受到伤害会减少1能量</t>
+  </si>
+  <si>
+    <t>邪恶血脉</t>
+  </si>
+  <si>
+    <t>遗物，生命小于25%时攻击力+9，但你的耐力-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,30 +445,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -271,25 +648,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -547,26 +1215,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,56 +1254,56 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -644,18 +1312,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -664,18 +1332,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -684,18 +1352,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -704,18 +1372,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -724,18 +1392,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -744,18 +1412,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -773,18 +1441,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -793,18 +1461,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -819,18 +1487,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>250</v>
@@ -839,18 +1507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -859,10 +1527,242 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3001</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3002</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3003</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3004</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3005</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3006</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3007</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3008</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C23C87-E6EB-4898-A452-023FBCC46A84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>效果数量</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>流派ID</t>
   </si>
   <si>
     <t>name</t>
@@ -105,6 +105,12 @@
     <t>buffNum</t>
   </si>
   <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>buildID</t>
+  </si>
+  <si>
     <t>动能装甲</t>
   </si>
   <si>
@@ -135,7 +141,7 @@
     <t>能量块</t>
   </si>
   <si>
-    <t>每使用1张手牌，便回复1点能量</t>
+    <t>每使用1张手牌，便回复0.5点能量</t>
   </si>
   <si>
     <t>Icon_Ability_4</t>
@@ -231,27 +237,143 @@
     <t>遗物，生命小于25%时攻击力+9，但你的耐力-2</t>
   </si>
   <si>
-    <t>级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流派ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>以攻为守</t>
+  </si>
+  <si>
+    <t>造成伤害时，获得1护甲</t>
+  </si>
+  <si>
+    <t>小齿轮</t>
+  </si>
+  <si>
+    <t>补牌数+1</t>
+  </si>
+  <si>
+    <t>不屈之盾</t>
+  </si>
+  <si>
+    <t>护甲的持续时间变为永久</t>
+  </si>
+  <si>
+    <t>动能回收器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复1点能量</t>
+  </si>
+  <si>
+    <t>震荡装甲</t>
+  </si>
+  <si>
+    <t>成功格挡时，抽1张牌</t>
+  </si>
+  <si>
+    <t>尖刺外壳</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>自然转化器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复2点生命</t>
+  </si>
+  <si>
+    <t>电能装甲</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成4点伤害</t>
+  </si>
+  <si>
+    <t>锯齿护臂</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>动能回收器+</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
+    <t>尖刺外壳+</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成4点伤害</t>
+  </si>
+  <si>
+    <t>水晶剑</t>
+  </si>
+  <si>
+    <t>暴击率提高10%,任意技能造成暴击后产生1层[兴奋]效果</t>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+  </si>
+  <si>
+    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+  </si>
+  <si>
+    <t>每当暴击便回复2点生命值。</t>
+  </si>
+  <si>
+    <t>圣灵之源</t>
+  </si>
+  <si>
+    <t>每打出3张魔法牌则生成一张[圣化]置入手牌</t>
+  </si>
+  <si>
+    <t>神圣法典</t>
+  </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
+  </si>
+  <si>
+    <t>战斗意志</t>
+  </si>
+  <si>
+    <t>每打出2张攻击牌回复2点能量</t>
+  </si>
+  <si>
+    <t>力量之铸</t>
+  </si>
+  <si>
+    <t>每当忏悔叠加至5层时，你的暴击率提高25%，随后移除忏悔</t>
+  </si>
+  <si>
+    <t>寒冰魔杖</t>
+  </si>
+  <si>
+    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
+  </si>
+  <si>
+    <t>冰冷血脉</t>
+  </si>
+  <si>
+    <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
+  </si>
+  <si>
+    <t>冰霜之心</t>
+  </si>
+  <si>
+    <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,20 +392,366 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,31 +759,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -579,26 +1357,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,57 +1401,57 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -682,18 +1460,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -702,18 +1480,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -722,18 +1500,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -742,18 +1520,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -762,18 +1540,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -782,18 +1560,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -811,18 +1589,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -831,18 +1609,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -857,18 +1635,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>250</v>
@@ -877,18 +1655,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -897,18 +1675,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -922,22 +1700,25 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>300</v>
@@ -951,27 +1732,30 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>300</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <v>3003</v>
       </c>
       <c r="G16">
@@ -980,27 +1764,30 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>300</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="8">
         <v>3004</v>
       </c>
       <c r="G17">
@@ -1009,27 +1796,30 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>300</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="8">
         <v>3005</v>
       </c>
       <c r="G18">
@@ -1038,22 +1828,25 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>300</v>
@@ -1067,27 +1860,30 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>3007</v>
       </c>
       <c r="G20">
@@ -1096,27 +1892,30 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>300</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>3008</v>
       </c>
       <c r="G21">
@@ -1125,13 +1924,676 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2022</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1007</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1046</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1013</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1014</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2008</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1015</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1016</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1017</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1018</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1024</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
         <v>3</v>
       </c>
     </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1028</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1040</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
+      </c>
+      <c r="F36" s="15">
+        <v>2035</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1030</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>300</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2037</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="19">
+        <v>300</v>
+      </c>
+      <c r="F40" s="19">
+        <v>1033</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
+        <v>1</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="19">
+        <v>300</v>
+      </c>
+      <c r="F41" s="20">
+        <v>2014</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="19">
+        <v>300</v>
+      </c>
+      <c r="F42" s="20">
+        <v>1044</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1</v>
+      </c>
+      <c r="H42" s="19">
+        <v>1</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553A385-4937-402B-ABE1-71012DCC1C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,14 +372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,151 +389,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,188 +432,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -759,251 +441,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1045,61 +485,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1357,26 +753,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1456,11 +852,8 @@
       <c r="E3">
         <v>150</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1476,11 +869,8 @@
       <c r="E4">
         <v>300</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1496,11 +886,8 @@
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1520,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1540,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1560,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1585,11 +972,8 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1605,11 +989,8 @@
       <c r="E10">
         <v>50</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1631,11 +1012,8 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1651,11 +1029,8 @@
       <c r="E12">
         <v>250</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1671,11 +1046,8 @@
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1700,14 +1072,11 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1732,14 +1101,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1764,14 +1130,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1796,14 +1159,11 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1828,14 +1188,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1860,14 +1217,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1892,14 +1246,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
       <c r="J20" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1924,14 +1275,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1956,14 +1304,11 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1988,14 +1333,11 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2020,14 +1362,11 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2052,14 +1391,11 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2084,14 +1420,11 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2116,14 +1449,11 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2148,14 +1478,11 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
       <c r="J28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2180,14 +1507,11 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2212,14 +1536,11 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2244,14 +1565,11 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2276,14 +1594,11 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2308,14 +1623,11 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2340,14 +1652,11 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
       <c r="J34" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2372,14 +1681,11 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2404,14 +1710,11 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
       <c r="J36" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2436,14 +1739,11 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
       <c r="J37" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2468,14 +1768,11 @@
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2500,14 +1797,11 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2535,7 +1829,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2563,7 +1857,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2592,8 +1886,8 @@
       <c r="J42" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553A385-4937-402B-ABE1-71012DCC1C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,8 +366,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,13 +389,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +566,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -441,11 +759,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -468,11 +1028,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -485,17 +1040,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -753,26 +1352,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -836,7 +1435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -853,7 +1452,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -870,7 +1469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -887,7 +1486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -907,7 +1506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -927,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -947,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -973,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -990,7 +1589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1013,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1030,7 +1629,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1047,7 +1646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1072,11 +1671,14 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1101,11 +1703,14 @@
       <c r="H15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1130,11 +1735,14 @@
       <c r="H16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="J16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1159,11 +1767,14 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1188,11 +1799,14 @@
       <c r="H18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1217,11 +1831,14 @@
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1246,11 +1863,14 @@
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1275,11 +1895,14 @@
       <c r="H21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1308,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1337,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1366,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1395,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1424,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1453,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1482,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1511,7 +2134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1540,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1569,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1598,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1627,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1656,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1685,7 +2308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1701,7 +2324,7 @@
       <c r="E36">
         <v>300</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="10">
         <v>2035</v>
       </c>
       <c r="G36">
@@ -1710,11 +2333,11 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1730,7 +2353,7 @@
       <c r="E37">
         <v>300</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="9">
         <v>1030</v>
       </c>
       <c r="G37">
@@ -1739,11 +2362,11 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1772,14 +2395,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D39" t="s">
@@ -1801,93 +2424,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="19">
-        <v>300</v>
-      </c>
-      <c r="F40" s="19">
+      <c r="D40" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="16">
+        <v>300</v>
+      </c>
+      <c r="F40" s="16">
         <v>1033</v>
       </c>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16">
+        <v>1</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="19">
-        <v>300</v>
-      </c>
-      <c r="F41" s="20">
+      <c r="D41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="16">
+        <v>300</v>
+      </c>
+      <c r="F41" s="17">
         <v>2014</v>
       </c>
-      <c r="G41" s="19">
-        <v>1</v>
-      </c>
-      <c r="H41" s="19">
-        <v>1</v>
-      </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G41" s="16">
+        <v>1</v>
+      </c>
+      <c r="H41" s="16">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="19">
-        <v>300</v>
-      </c>
-      <c r="F42" s="20">
+      <c r="D42" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="16">
+        <v>300</v>
+      </c>
+      <c r="F42" s="17">
         <v>1044</v>
       </c>
-      <c r="G42" s="19">
-        <v>1</v>
-      </c>
-      <c r="H42" s="19">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622FF79A-B355-4002-A172-5FAA649B5700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -362,18 +368,112 @@
   <si>
     <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
   </si>
+  <si>
+    <t>攻击力调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量最大值调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量回复速度调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efence</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eMp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pMax</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pMax</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,151 +489,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,194 +534,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -759,253 +543,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1039,62 +581,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1352,26 +851,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="11" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +906,26 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1434,8 +956,26 @@
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="K2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1452,7 +992,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1469,7 +1009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1486,7 +1026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1506,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1526,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1546,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1572,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1589,7 +1129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1612,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1629,7 +1169,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1646,7 +1186,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1678,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1710,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1742,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1774,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1806,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1838,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1870,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1902,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1931,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1960,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1989,7 +1529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2018,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2047,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2076,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2105,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2134,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2163,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2192,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2221,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2250,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2279,7 +1819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2308,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2337,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2366,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2395,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2424,7 +1964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2452,7 +1992,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2480,7 +2020,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2509,8 +2049,8 @@
       <c r="J42" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622FF79A-B355-4002-A172-5FAA649B5700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DF3A3-24B2-491C-9B4F-761988E07644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2535" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +69,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,6 +80,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,6 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,6 +104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -198,49 +202,25 @@
     <t>玻璃大炮</t>
   </si>
   <si>
-    <t>遗物，攻击力+3，但所有牌消耗增加1</t>
-  </si>
-  <si>
     <t>琉璃甲</t>
   </si>
   <si>
-    <t>遗物，获得护甲时回复2能量，但受到伤害会被昏迷</t>
-  </si>
-  <si>
     <t>荆棘之心</t>
   </si>
   <si>
-    <t>遗物，格挡时造成7点伤害，但能量回复-1</t>
-  </si>
-  <si>
     <t>诅咒之书</t>
   </si>
   <si>
-    <t>遗物，你的暴击率提高60%，但战斗中每2秒都会失去生命</t>
-  </si>
-  <si>
     <t>神力代价</t>
   </si>
   <si>
-    <t>遗物，战斗开始第8秒时获得一张“天降神锤”，但你的耐力-1</t>
-  </si>
-  <si>
     <t>远古盟约</t>
   </si>
   <si>
-    <t>遗物，造成伤害时你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
-  </si>
-  <si>
     <t>中和法典</t>
   </si>
   <si>
-    <t>遗物，耐力+1，但受到伤害会减少1能量</t>
-  </si>
-  <si>
     <t>邪恶血脉</t>
-  </si>
-  <si>
-    <t>遗物，生命小于25%时攻击力+9，但你的耐力-2</t>
   </si>
   <si>
     <t>以攻为守</t>
@@ -466,6 +446,97 @@
   </si>
   <si>
     <t>crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力+3，但所有牌消耗增加1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得护甲时回复2能量，但受到伤害会被昏迷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡时造成7点伤害，但能量回复-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的暴击率提高60%，但战斗中每2秒都会失去生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始第8秒时获得一张“天降神锤”，但你的耐力-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害时你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力+1，但受到伤害会减少1能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命小于25%时攻击力+9，但你的耐力-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9,10,11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9,10,11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9,10,11</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,12 +556,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -547,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -582,6 +655,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -859,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,22 +984,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -957,22 +1034,22 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1042,8 +1119,8 @@
       <c r="E6">
         <v>200</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1062,8 +1139,8 @@
       <c r="E7">
         <v>150</v>
       </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="J7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1082,8 +1159,8 @@
       <c r="E8">
         <v>350</v>
       </c>
-      <c r="J8">
-        <v>4</v>
+      <c r="J8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1194,7 +1271,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1214,8 +1291,8 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
+      <c r="J14" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1223,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1255,10 +1332,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1287,10 +1364,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1310,8 +1387,8 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="8">
-        <v>3</v>
+      <c r="J17" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1319,10 +1396,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1351,10 +1428,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1374,8 +1451,8 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
-        <v>1</v>
+      <c r="J19" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1383,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1415,10 +1492,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1447,10 +1524,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1467,8 +1544,8 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="J22" s="5">
-        <v>2</v>
+      <c r="J22" s="21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1476,10 +1553,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1505,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1534,10 +1611,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1563,10 +1640,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1592,10 +1669,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1621,10 +1698,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1650,10 +1727,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1679,10 +1756,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1708,10 +1785,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1737,10 +1814,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1766,10 +1843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1795,10 +1872,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1824,10 +1901,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1853,10 +1930,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1882,10 +1959,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -1911,10 +1988,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -1940,10 +2017,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -1969,10 +2046,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>21</v>
@@ -1990,17 +2067,19 @@
         <v>1</v>
       </c>
       <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="J40" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>21</v>
@@ -2018,17 +2097,19 @@
         <v>1</v>
       </c>
       <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="J41" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>21</v>
@@ -2046,7 +2127,9 @@
         <v>1</v>
       </c>
       <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="J42" s="9">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DF3A3-24B2-491C-9B4F-761988E07644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D390F66-FC4D-45F0-9A1B-4A7741D102B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2535" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -166,9 +166,6 @@
     <t>凸透镜</t>
   </si>
   <si>
-    <t>每次补牌时对敌人造成5点穿透伤害。</t>
-  </si>
-  <si>
     <t>樱桃罐头</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>战斗结束后回复4点生命值</t>
   </si>
   <si>
-    <t>玻璃大炮</t>
-  </si>
-  <si>
     <t>琉璃甲</t>
   </si>
   <si>
@@ -265,28 +259,10 @@
     <t>成功格挡时，回复2点生命</t>
   </si>
   <si>
-    <t>电能装甲</t>
-  </si>
-  <si>
-    <t>成功格挡时，造成4点伤害</t>
-  </si>
-  <si>
     <t>锯齿护臂</t>
   </si>
   <si>
     <t>成功格挡时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>动能回收器+</t>
-  </si>
-  <si>
-    <t>成功格挡时，回复1.5点能量</t>
-  </si>
-  <si>
-    <t>尖刺外壳+</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成4点伤害</t>
   </si>
   <si>
     <t>水晶剑</t>
@@ -449,14 +425,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击力+3，但所有牌消耗增加1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,19 +441,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始第8秒时获得一张“天降神锤”，但你的耐力-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>造成伤害时你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力+1，但受到伤害会减少1能量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命小于25%时攻击力+9，但你的耐力-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -537,6 +493,108 @@
       </rPr>
       <t>,9,10,11</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小匕首</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1点攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5,6,7,8,9,10,11,12</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小圆盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1点防御力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的所有伤害降低1点，但受到伤害会减少1能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命小于25%时攻击力+9，但你受到的所有伤害降会增加2点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始第8秒时获得一张“天降神锤”，但你受到的所有伤害增加1点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时对敌人造成5点穿透伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃大炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉重之斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力+2，但受到的所有伤害增加1点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点火器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌对敌人附加1层点燃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大能量值增加2点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙之眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量回复速度提高1点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -659,6 +717,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -934,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,6 +1006,7 @@
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="13.625" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
@@ -984,22 +1046,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1034,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1119,9 +1181,6 @@
       <c r="E6">
         <v>200</v>
       </c>
-      <c r="J6" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1139,8 +1198,8 @@
       <c r="E7">
         <v>150</v>
       </c>
-      <c r="J7" t="s">
-        <v>107</v>
+      <c r="J7" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1150,8 +1209,8 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
+      <c r="C8" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1159,8 +1218,17 @@
       <c r="E8">
         <v>350</v>
       </c>
-      <c r="J8" t="s">
-        <v>107</v>
+      <c r="F8">
+        <v>2047</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1168,10 +1236,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1187,6 +1255,9 @@
       </c>
       <c r="H9">
         <v>1</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1194,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1211,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1227,6 +1298,9 @@
       </c>
       <c r="H11">
         <v>1</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1234,10 +1308,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1251,10 +1325,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1267,11 +1341,11 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
+      <c r="B14" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1291,8 +1365,8 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>117</v>
+      <c r="J14" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1300,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1323,8 +1397,8 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
+      <c r="J15" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1332,10 +1406,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1355,19 +1429,19 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1388,18 +1462,18 @@
         <v>1</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1423,15 +1497,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1452,18 +1526,18 @@
         <v>1</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1487,15 +1561,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1519,15 +1593,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1545,18 +1619,18 @@
         <v>1</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1577,15 +1651,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1602,19 +1676,22 @@
       <c r="H24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
       <c r="J24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1635,15 +1712,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1664,15 +1741,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1693,15 +1770,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1722,15 +1799,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1739,7 +1816,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="6">
-        <v>1016</v>
+        <v>3021</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1747,19 +1824,19 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="J29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1780,15 +1857,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1796,28 +1873,29 @@
       <c r="E31">
         <v>300</v>
       </c>
-      <c r="F31" s="5">
-        <v>1018</v>
-      </c>
+      <c r="F31" s="5"/>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="J31" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1825,28 +1903,29 @@
       <c r="E32">
         <v>300</v>
       </c>
-      <c r="F32" s="5">
-        <v>2009</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="J32" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1867,15 +1946,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1896,15 +1975,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1925,15 +2004,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1954,15 +2033,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -1983,15 +2062,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -2012,15 +2091,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -2041,15 +2120,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>21</v>
@@ -2071,15 +2150,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>21</v>
@@ -2101,15 +2180,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>21</v>
@@ -2129,6 +2208,81 @@
       <c r="I42" s="16"/>
       <c r="J42" s="9">
         <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="16">
+        <v>300</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4</v>
+      </c>
+      <c r="H43" s="16">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="16">
+        <v>300</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="16">
+        <v>300</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D390F66-FC4D-45F0-9A1B-4A7741D102B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A65399-A465-4FBC-84A5-0B80621D9C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="3090" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -537,10 +537,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始第8秒时获得一张“天降神锤”，但你受到的所有伤害增加1点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每次补牌时对敌人造成5点穿透伤害。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -595,6 +591,34 @@
   </si>
   <si>
     <t>能量回复速度提高1点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴徒刻印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次造成的伤害大于等于10点,使你的暴击率提升5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完全保险装置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次受到的伤害大于等于12点时,你在接下来的2秒内有50%几率闪避所有伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始第8秒时获得一张“天降神锤”，但你的最大生命值降低10点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄水池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场战斗受到的总伤害超过30时,你将回复10点生命值,每场战斗最多触发一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -719,6 +743,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1237,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1342,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>99</v>
@@ -1398,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1430,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1465,7 +1492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1496,8 +1523,11 @@
       <c r="J18" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1529,7 +1559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1561,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1622,7 +1652,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1651,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1683,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1712,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1741,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1770,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1799,15 +1829,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1827,8 +1857,11 @@
       <c r="J29" s="21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1857,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1887,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2215,10 +2248,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>21</v>
@@ -2241,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>21</v>
@@ -2264,10 +2297,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>21</v>
@@ -2283,6 +2316,96 @@
       </c>
       <c r="O45">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="16">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>2508</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="16">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <v>2509</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="16">
+        <v>300</v>
+      </c>
+      <c r="F48">
+        <v>2510</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A65399-A465-4FBC-84A5-0B80621D9C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F81304-BB91-4B9B-9CC3-7067400972B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="3090" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单次造成的伤害大于等于10点,使你的暴击率提升5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不完全保险装置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -618,7 +614,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本场战斗受到的总伤害超过30时,你将回复10点生命值,每场战斗最多触发一次</t>
+    <t>本场战斗受到的总伤害超过20时,你将回复6点生命值,每场战斗最多触发一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次造成的伤害大于等于10点,使你的暴击率提升5%,暴击率提升效果可叠加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1500,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -2326,7 +2326,7 @@
         <v>125</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>21</v>
@@ -2355,10 +2355,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>21</v>
@@ -2384,10 +2384,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>21</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F81304-BB91-4B9B-9CC3-7067400972B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62772A38-6752-4E32-BB1E-4A24B5315E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3090" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -619,6 +619,38 @@
   </si>
   <si>
     <t>单次造成的伤害大于等于10点,使你的暴击率提升5%,暴击率提升效果可叠加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全副武装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你的护甲层数大于10时,你的攻击力提高2点</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片装甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场战斗获得的总护甲数大于30时,立即回复10点能量值,每场战斗最多触发一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1022,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2408,6 +2440,67 @@
         <v>109</v>
       </c>
     </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="16">
+        <v>300</v>
+      </c>
+      <c r="F49">
+        <v>2513</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="16">
+        <v>300</v>
+      </c>
+      <c r="F50">
+        <v>2512</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108F58B-DBC8-4786-A5C0-4B32618DDC60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-2925" yWindow="2145" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -612,18 +618,20 @@
   <si>
     <t>每打出2张防御牌给与敌人1层[易伤]</t>
   </si>
+  <si>
+    <t>炎魔精魄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,151 +654,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,194 +685,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1010,251 +694,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1297,61 +739,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1609,19 +1007,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1634,7 +1032,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1760,7 +1158,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:10">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1776,9 +1174,6 @@
       <c r="E4">
         <v>150</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4">
         <v>1</v>
       </c>
@@ -1786,7 +1181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:10">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1818,7 +1213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:10">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1850,7 +1245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:10">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1869,7 +1264,6 @@
       <c r="F7">
         <v>1011</v>
       </c>
-      <c r="G7"/>
       <c r="H7">
         <v>1</v>
       </c>
@@ -1880,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:9">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1896,14 +1290,11 @@
       <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:10">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1935,7 +1326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1967,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:10">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1999,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:10">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2031,7 +1422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2062,13 +1453,11 @@
       <c r="J13" s="11">
         <v>3</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
       <c r="M13">
         <v>-10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:10">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
@@ -2100,7 +1489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:10">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -2132,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:10">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -2164,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:10">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -2196,7 +1585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
@@ -2231,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -2263,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:10">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23</v>
       </c>
@@ -2295,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:10">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24</v>
       </c>
@@ -2327,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:10">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2359,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:10">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26</v>
       </c>
@@ -2391,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:11">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
@@ -2426,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:10">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>28</v>
       </c>
@@ -2458,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:12">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>29</v>
       </c>
@@ -2494,7 +1883,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:12">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -2527,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -2559,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:10">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -2591,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:10">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>33</v>
       </c>
@@ -2623,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:10">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>34</v>
       </c>
@@ -2655,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:10">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>35</v>
       </c>
@@ -2687,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:10">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36</v>
       </c>
@@ -2719,7 +2108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:10">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>37</v>
       </c>
@@ -2751,7 +2140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:10">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -2783,7 +2172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:10">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>39</v>
       </c>
@@ -2815,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:10">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -2847,7 +2236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:10">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41</v>
       </c>
@@ -2866,7 +2255,6 @@
       <c r="F38" s="4">
         <v>4</v>
       </c>
-      <c r="G38"/>
       <c r="H38" s="5">
         <v>1</v>
       </c>
@@ -2877,7 +2265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:14">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42</v>
       </c>
@@ -2906,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>43</v>
       </c>
@@ -2935,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:10">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -2967,7 +2355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:10">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45</v>
       </c>
@@ -2999,7 +2387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:10">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -3031,7 +2419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:10">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47</v>
       </c>
@@ -3063,7 +2451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:10">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48</v>
       </c>
@@ -3088,12 +2476,11 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45"/>
       <c r="J45" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:10">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49</v>
       </c>
@@ -3125,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:10">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
@@ -3157,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:10">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>51</v>
       </c>
@@ -3189,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="28.5" spans="1:10">
+    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>52</v>
       </c>
@@ -3221,7 +2608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>53</v>
       </c>
@@ -3253,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>54</v>
       </c>
@@ -3285,7 +2672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>55</v>
       </c>
@@ -3317,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
@@ -3349,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>57</v>
       </c>
@@ -3381,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -3413,31 +2800,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="2:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="F56" s="8">
+        <v>2528</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
-      <c r="C58"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" customFormat="1" spans="2:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
       <c r="J59" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108F58B-DBC8-4786-A5C0-4B32618DDC60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB85919-3030-426E-9CB1-0176DF896BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2925" yWindow="2145" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="26985" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -624,6 +624,14 @@
   </si>
   <si>
     <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炎魔杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2832,6 +2840,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="5">
+        <v>300</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2529</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>11</v>
+      </c>
+    </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="D58" s="5"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB85919-3030-426E-9CB1-0176DF896BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="26985" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$57</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -372,12 +369,6 @@
     <t>造成伤害时，获得1护甲</t>
   </si>
   <si>
-    <t>小齿轮</t>
-  </si>
-  <si>
-    <t>补牌数+1，能量最大值+1</t>
-  </si>
-  <si>
     <t>不屈之盾</t>
   </si>
   <si>
@@ -390,12 +381,6 @@
     <t>成功格挡时，回复1.5点能量</t>
   </si>
   <si>
-    <t>震荡装甲</t>
-  </si>
-  <si>
-    <t>成功格挡时，抽1张牌</t>
-  </si>
-  <si>
     <t>尖刺外壳</t>
   </si>
   <si>
@@ -435,19 +420,19 @@
     <t>水晶剑</t>
   </si>
   <si>
-    <t>暴击率提高10%,任意技能造成暴击后产生1层[兴奋]效果</t>
+    <t>暴击率提高25%,任意技能造成暴击后产生1层[兴奋]效果</t>
   </si>
   <si>
     <t>英勇斗篷</t>
   </si>
   <si>
-    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+    <t>暴击率提升25%,每当暴击便回复1点能量。</t>
   </si>
   <si>
     <t>冲锋面罩</t>
   </si>
   <si>
-    <t>每当暴击便回复2点生命值。</t>
+    <t>暴击率提升25%,每当暴击便回复2点生命值。</t>
   </si>
   <si>
     <t>圣灵之源</t>
@@ -620,33 +605,28 @@
   </si>
   <si>
     <t>炎魔精魄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>爆炎魔杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,13 +642,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +811,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -702,62 +1006,340 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1015,19 +1597,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1040,7 +1622,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1127,10 +1709,10 @@
       <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1140,14 +1722,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
@@ -1159,14 +1741,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1185,18 +1767,18 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
@@ -1217,11 +1799,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1249,11 +1831,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1278,18 +1860,18 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
@@ -1302,78 +1884,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5">
-        <v>300</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4">
         <v>3001</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5">
-        <v>300</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4">
+        <v>300</v>
+      </c>
+      <c r="F10" s="6">
         <v>3002</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D11" t="s">
@@ -1382,7 +1964,7 @@
       <c r="E11">
         <v>300</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>3003</v>
       </c>
       <c r="G11">
@@ -1394,18 +1976,18 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
@@ -1414,7 +1996,7 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>3004</v>
       </c>
       <c r="G12">
@@ -1426,18 +2008,18 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>16</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D13" t="s">
@@ -1446,7 +2028,7 @@
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>3005</v>
       </c>
       <c r="G13">
@@ -1458,53 +2040,53 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>3</v>
       </c>
       <c r="M13">
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5">
-        <v>300</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4">
+        <v>300</v>
+      </c>
+      <c r="F14" s="4">
         <v>3006</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
@@ -1513,7 +2095,7 @@
       <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="10">
         <v>3007</v>
       </c>
       <c r="G15">
@@ -1525,18 +2107,18 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>19</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D16" t="s">
@@ -1545,7 +2127,7 @@
       <c r="E16">
         <v>300</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="10">
         <v>3008</v>
       </c>
       <c r="G16">
@@ -1557,149 +2139,146 @@
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>20</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="5">
-        <v>300</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4">
+        <v>300</v>
+      </c>
+      <c r="F17" s="4">
         <v>2022</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
-        <v>21</v>
-      </c>
-      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5">
-        <v>300</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1007</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1046</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1013</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2008</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1046</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="J20" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1013</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D21" t="s">
@@ -1709,7 +2288,7 @@
         <v>300</v>
       </c>
       <c r="F21" s="6">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1720,50 +2299,53 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>300</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2008</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4">
+        <v>300</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3021</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
-        <v>26</v>
-      </c>
-      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D23" t="s">
@@ -1772,8 +2354,8 @@
       <c r="E23">
         <v>300</v>
       </c>
-      <c r="F23" s="8">
-        <v>1015</v>
+      <c r="F23" s="6">
+        <v>1017</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1784,53 +2366,54 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
-        <v>27</v>
-      </c>
-      <c r="B24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5">
-        <v>300</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3021</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12" t="s">
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
-        <v>28</v>
-      </c>
-      <c r="B25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D25" t="s">
@@ -1839,30 +2422,31 @@
       <c r="E25">
         <v>300</v>
       </c>
-      <c r="F25" s="8">
-        <v>1017</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="F25" s="3"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="J25" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
-        <v>29</v>
-      </c>
-      <c r="B26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D26" t="s">
@@ -1871,34 +2455,30 @@
       <c r="E26">
         <v>300</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="F26" s="7">
+        <v>1024</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
@@ -1907,31 +2487,30 @@
       <c r="E27">
         <v>300</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="F27" s="7">
+        <v>1028</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
-        <v>31</v>
-      </c>
-      <c r="B28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D28" t="s">
@@ -1940,8 +2519,8 @@
       <c r="E28">
         <v>300</v>
       </c>
-      <c r="F28" s="9">
-        <v>1024</v>
+      <c r="F28" s="8">
+        <v>1040</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1952,18 +2531,18 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29">
-        <v>32</v>
-      </c>
-      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D29" t="s">
@@ -1972,8 +2551,8 @@
       <c r="E29">
         <v>300</v>
       </c>
-      <c r="F29" s="9">
-        <v>1028</v>
+      <c r="F29" s="10">
+        <v>2035</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1985,17 +2564,17 @@
         <v>0</v>
       </c>
       <c r="J29" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
-        <v>33</v>
-      </c>
-      <c r="B30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D30" t="s">
@@ -2004,8 +2583,8 @@
       <c r="E30">
         <v>300</v>
       </c>
-      <c r="F30" s="11">
-        <v>1040</v>
+      <c r="F30" s="9">
+        <v>1030</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2017,49 +2596,49 @@
         <v>0</v>
       </c>
       <c r="J30" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4">
+        <v>300</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2025</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>34</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-      <c r="F31" s="15">
-        <v>2035</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32">
-        <v>35</v>
-      </c>
-      <c r="B32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D32" t="s">
@@ -2068,8 +2647,8 @@
       <c r="E32">
         <v>300</v>
       </c>
-      <c r="F32" s="13">
-        <v>1030</v>
+      <c r="F32" s="9">
+        <v>2037</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2080,486 +2659,486 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
-        <v>36</v>
-      </c>
-      <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="5">
-        <v>300</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2025</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="4">
+        <v>300</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1033</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
-        <v>37</v>
-      </c>
-      <c r="B34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>300</v>
-      </c>
-      <c r="F34" s="13">
-        <v>2037</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
+      <c r="D34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="4">
+        <v>300</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
         <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J34" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
-        <v>38</v>
-      </c>
-      <c r="B35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="5">
-        <v>300</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1033</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1044</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="5">
-        <v>300</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4">
+        <v>300</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" s="4">
         <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J36" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
-        <v>40</v>
-      </c>
-      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5">
-        <v>300</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1044</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="4">
+        <v>300</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="5">
-        <v>300</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="4">
+        <v>300</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="4">
+        <v>300</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2508</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="4">
+        <v>300</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2509</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="4">
+        <v>300</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2510</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="4">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>2513</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="4">
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <v>2512</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44" s="10">
+        <v>3048</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
         <v>4</v>
       </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>42</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5">
-        <v>300</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39">
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>300</v>
+      </c>
+      <c r="F45" s="10">
+        <v>3049</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="F46" s="10">
+        <v>3051</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>43</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="5">
-        <v>300</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>44</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="5">
-        <v>300</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2508</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="J46" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" ht="28.5" spans="1:10">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="F47" s="10">
+        <v>3052</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>2</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>45</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="5">
-        <v>300</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2509</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
-        <v>2</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>46</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5">
-        <v>300</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2510</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
-        <v>2</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="5">
-        <v>300</v>
-      </c>
-      <c r="F44">
-        <v>2513</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>48</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="5">
-        <v>300</v>
-      </c>
-      <c r="F45">
-        <v>2512</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>49</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>300</v>
-      </c>
-      <c r="F46" s="15">
-        <v>3048</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="15">
+      <c r="J47" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>50</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47">
-        <v>300</v>
-      </c>
-      <c r="F47" s="15">
-        <v>3049</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48">
-        <v>51</v>
-      </c>
-      <c r="B48" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D48" t="s">
@@ -2568,8 +3147,8 @@
       <c r="E48">
         <v>300</v>
       </c>
-      <c r="F48" s="15">
-        <v>3051</v>
+      <c r="F48" s="8">
+        <v>3053</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2580,18 +3159,18 @@
       <c r="I48">
         <v>2</v>
       </c>
-      <c r="J48" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
-        <v>52</v>
-      </c>
-      <c r="B49" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D49" t="s">
@@ -2600,8 +3179,8 @@
       <c r="E49">
         <v>300</v>
       </c>
-      <c r="F49" s="15">
-        <v>3052</v>
+      <c r="F49" s="8">
+        <v>3054</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2612,18 +3191,18 @@
       <c r="I49">
         <v>2</v>
       </c>
-      <c r="J49" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
-        <v>53</v>
-      </c>
-      <c r="B50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D50" t="s">
@@ -2632,8 +3211,8 @@
       <c r="E50">
         <v>300</v>
       </c>
-      <c r="F50" s="11">
-        <v>3053</v>
+      <c r="F50" s="8">
+        <v>3055</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2644,18 +3223,18 @@
       <c r="I50">
         <v>2</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51">
-        <v>54</v>
-      </c>
-      <c r="B51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D51" t="s">
@@ -2664,8 +3243,8 @@
       <c r="E51">
         <v>300</v>
       </c>
-      <c r="F51" s="11">
-        <v>3054</v>
+      <c r="F51" s="6">
+        <v>3056</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2676,28 +3255,28 @@
       <c r="I51">
         <v>2</v>
       </c>
-      <c r="J51" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
-        <v>55</v>
-      </c>
-      <c r="B52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="D52" t="s">
         <v>37</v>
       </c>
       <c r="E52">
         <v>300</v>
       </c>
-      <c r="F52" s="11">
-        <v>3055</v>
+      <c r="F52" s="6">
+        <v>3057</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2708,28 +3287,28 @@
       <c r="I52">
         <v>2</v>
       </c>
-      <c r="J52" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
-        <v>56</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="D53" t="s">
         <v>37</v>
       </c>
       <c r="E53">
         <v>300</v>
       </c>
-      <c r="F53" s="8">
-        <v>3056</v>
+      <c r="F53" s="6">
+        <v>3058</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2740,18 +3319,18 @@
       <c r="I53">
         <v>2</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54">
-        <v>57</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
         <v>139</v>
       </c>
       <c r="D54" t="s">
@@ -2760,8 +3339,8 @@
       <c r="E54">
         <v>300</v>
       </c>
-      <c r="F54" s="8">
-        <v>3057</v>
+      <c r="F54" s="6">
+        <v>2528</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2770,124 +3349,63 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
-        <v>58</v>
-      </c>
-      <c r="B55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55">
-        <v>300</v>
-      </c>
-      <c r="F55" s="8">
-        <v>3058</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56">
-        <v>300</v>
-      </c>
-      <c r="F56" s="8">
-        <v>2528</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="J56">
+      <c r="D55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="4">
+        <v>300</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2529</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>60</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="5">
-        <v>300</v>
-      </c>
-      <c r="F57" s="8">
-        <v>2529</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="J59" s="2"/>
+    <row r="56" spans="2:10">
+      <c r="B56" s="1"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="I1:I57">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -621,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -642,18 +642,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,15 +687,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,97 +780,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,13 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +831,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,13 +867,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,48 +939,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -921,31 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,43 +969,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,71 +998,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,8 +1019,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,7 +1059,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,133 +1116,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,7 +1600,7 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1736,7 +1730,7 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1762,7 +1756,7 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1785,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F5">
         <v>2047</v>
@@ -1817,7 +1811,7 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>1012</v>
@@ -1849,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F7">
         <v>1011</v>
@@ -1878,7 +1872,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1898,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="4">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="F9" s="4">
         <v>3001</v>
@@ -1929,8 +1923,8 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4">
-        <v>300</v>
+      <c r="E10">
+        <v>330</v>
       </c>
       <c r="F10" s="6">
         <v>3002</v>
@@ -1962,7 +1956,7 @@
         <v>37</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F11" s="6">
         <v>3003</v>
@@ -1994,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F12" s="8">
         <v>3004</v>
@@ -2026,7 +2020,7 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F13" s="8">
         <v>3005</v>
@@ -2061,7 +2055,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="4">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="F14" s="4">
         <v>3006</v>
@@ -2093,7 +2087,7 @@
         <v>37</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F15" s="10">
         <v>3007</v>
@@ -2124,8 +2118,8 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
-        <v>300</v>
+      <c r="E16" s="4">
+        <v>440</v>
       </c>
       <c r="F16" s="10">
         <v>3008</v>
@@ -2156,8 +2150,8 @@
       <c r="D17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4">
-        <v>300</v>
+      <c r="E17">
+        <v>330</v>
       </c>
       <c r="F17" s="4">
         <v>2022</v>
@@ -2221,7 +2215,7 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F19" s="5">
         <v>1013</v>
@@ -2253,7 +2247,7 @@
         <v>37</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F20" s="5">
         <v>2008</v>
@@ -2285,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F21" s="6">
         <v>1015</v>
@@ -2316,8 +2310,8 @@
       <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="4">
-        <v>300</v>
+      <c r="E22">
+        <v>330</v>
       </c>
       <c r="F22" s="4">
         <v>3021</v>
@@ -2352,7 +2346,7 @@
         <v>37</v>
       </c>
       <c r="E23">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F23" s="6">
         <v>1017</v>
@@ -2384,7 +2378,7 @@
         <v>37</v>
       </c>
       <c r="E24">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4">
@@ -2420,7 +2414,7 @@
         <v>37</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4">
@@ -2453,7 +2447,7 @@
         <v>37</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7">
         <v>1024</v>
@@ -2485,7 +2479,7 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F27" s="7">
         <v>1028</v>
@@ -2517,7 +2511,7 @@
         <v>37</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F28" s="8">
         <v>1040</v>
@@ -2549,7 +2543,7 @@
         <v>37</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F29" s="10">
         <v>2035</v>
@@ -2581,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="E30">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F30" s="9">
         <v>1030</v>
@@ -2612,8 +2606,8 @@
       <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="4">
-        <v>300</v>
+      <c r="E31">
+        <v>330</v>
       </c>
       <c r="F31" s="7">
         <v>2025</v>
@@ -2645,7 +2639,7 @@
         <v>37</v>
       </c>
       <c r="E32">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F32" s="9">
         <v>2037</v>
@@ -2676,8 +2670,8 @@
       <c r="D33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="4">
-        <v>300</v>
+      <c r="E33">
+        <v>220</v>
       </c>
       <c r="F33" s="4">
         <v>1033</v>
@@ -2708,8 +2702,8 @@
       <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="4">
-        <v>300</v>
+      <c r="E34">
+        <v>220</v>
       </c>
       <c r="F34" s="3">
         <v>2014</v>
@@ -2740,8 +2734,8 @@
       <c r="D35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="4">
-        <v>300</v>
+      <c r="E35">
+        <v>220</v>
       </c>
       <c r="F35" s="3">
         <v>1044</v>
@@ -2772,8 +2766,8 @@
       <c r="D36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="4">
-        <v>300</v>
+      <c r="E36">
+        <v>220</v>
       </c>
       <c r="F36" s="3">
         <v>4</v>
@@ -2801,8 +2795,8 @@
       <c r="D37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="4">
-        <v>300</v>
+      <c r="E37">
+        <v>330</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2830,8 +2824,8 @@
       <c r="D38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="4">
-        <v>300</v>
+      <c r="E38">
+        <v>330</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2860,7 +2854,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="4">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="F39" s="4">
         <v>2508</v>
@@ -2892,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="4">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="F40" s="4">
         <v>2509</v>
@@ -2924,7 +2918,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="4">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="F41" s="4">
         <v>2510</v>
@@ -2956,7 +2950,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="4">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="F42">
         <v>2513</v>
@@ -3017,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F44" s="10">
         <v>3048</v>
@@ -3049,7 +3043,7 @@
         <v>37</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F45" s="10">
         <v>3049</v>
@@ -3080,8 +3074,8 @@
       <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46">
-        <v>300</v>
+      <c r="E46" s="4">
+        <v>440</v>
       </c>
       <c r="F46" s="10">
         <v>3051</v>
@@ -3112,8 +3106,8 @@
       <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="E47">
-        <v>300</v>
+      <c r="E47" s="4">
+        <v>440</v>
       </c>
       <c r="F47" s="10">
         <v>3052</v>
@@ -3144,8 +3138,8 @@
       <c r="D48" t="s">
         <v>37</v>
       </c>
-      <c r="E48">
-        <v>300</v>
+      <c r="E48" s="4">
+        <v>440</v>
       </c>
       <c r="F48" s="8">
         <v>3053</v>
@@ -3176,8 +3170,8 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49">
-        <v>300</v>
+      <c r="E49" s="4">
+        <v>440</v>
       </c>
       <c r="F49" s="8">
         <v>3054</v>
@@ -3208,8 +3202,8 @@
       <c r="D50" t="s">
         <v>37</v>
       </c>
-      <c r="E50">
-        <v>300</v>
+      <c r="E50" s="4">
+        <v>440</v>
       </c>
       <c r="F50" s="8">
         <v>3055</v>
@@ -3240,8 +3234,8 @@
       <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="E51">
-        <v>300</v>
+      <c r="E51" s="4">
+        <v>440</v>
       </c>
       <c r="F51" s="6">
         <v>3056</v>
@@ -3272,8 +3266,8 @@
       <c r="D52" t="s">
         <v>37</v>
       </c>
-      <c r="E52">
-        <v>300</v>
+      <c r="E52" s="4">
+        <v>440</v>
       </c>
       <c r="F52" s="6">
         <v>3057</v>
@@ -3304,8 +3298,8 @@
       <c r="D53" t="s">
         <v>37</v>
       </c>
-      <c r="E53">
-        <v>300</v>
+      <c r="E53" s="4">
+        <v>440</v>
       </c>
       <c r="F53" s="6">
         <v>3058</v>
@@ -3337,7 +3331,7 @@
         <v>37</v>
       </c>
       <c r="E54">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="F54" s="6">
         <v>2528</v>
@@ -3368,8 +3362,8 @@
       <c r="D55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="4">
-        <v>300</v>
+      <c r="E55">
+        <v>330</v>
       </c>
       <c r="F55" s="6">
         <v>2529</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -621,9 +621,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -642,24 +642,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,25 +666,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +698,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,17 +719,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,31 +733,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,7 +749,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -780,9 +765,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -813,19 +813,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,79 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,55 +951,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +998,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1016,30 +1025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1051,26 +1036,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1058,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1104,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,19 +1116,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,112 +1137,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8189E-37DF-4163-8B60-28A29197C706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -615,18 +621,20 @@
   <si>
     <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
   </si>
+  <si>
+    <t>初始解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialUnlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,151 +650,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,188 +681,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1000,251 +690,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1279,61 +727,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1591,19 +995,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1616,7 +1020,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1665,8 +1069,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1715,8 +1122,11 @@
       <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1741,8 +1151,11 @@
       <c r="P3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1764,8 +1177,11 @@
       <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1796,8 +1212,11 @@
       <c r="J5" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1828,8 +1247,11 @@
       <c r="J6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1857,8 +1279,11 @@
       <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1877,8 +1302,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1909,8 +1337,11 @@
       <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1942,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1974,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2006,7 +1437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2041,7 +1472,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
@@ -2073,7 +1504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -2105,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -2137,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -2169,7 +1600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22</v>
       </c>
@@ -2201,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
@@ -2233,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -2265,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2297,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -2332,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>28</v>
       </c>
@@ -2364,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29</v>
       </c>
@@ -2400,7 +1831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
@@ -2433,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31</v>
       </c>
@@ -2465,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>32</v>
       </c>
@@ -2497,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>33</v>
       </c>
@@ -2529,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>34</v>
       </c>
@@ -2561,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2593,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>36</v>
       </c>
@@ -2625,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37</v>
       </c>
@@ -2657,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2689,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39</v>
       </c>
@@ -2721,7 +2152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40</v>
       </c>
@@ -2753,7 +2184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41</v>
       </c>
@@ -2782,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42</v>
       </c>
@@ -2811,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>43</v>
       </c>
@@ -2840,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>44</v>
       </c>
@@ -2872,7 +2303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>45</v>
       </c>
@@ -2904,7 +2335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>46</v>
       </c>
@@ -2936,7 +2367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>47</v>
       </c>
@@ -2968,7 +2399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>48</v>
       </c>
@@ -2997,7 +2428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>49</v>
       </c>
@@ -3029,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50</v>
       </c>
@@ -3061,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51</v>
       </c>
@@ -3093,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" ht="28.5" spans="1:10">
+    <row r="47" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52</v>
       </c>
@@ -3125,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
@@ -3157,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>54</v>
       </c>
@@ -3189,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>55</v>
       </c>
@@ -3221,7 +2652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>56</v>
       </c>
@@ -3253,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>57</v>
       </c>
@@ -3285,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>58</v>
       </c>
@@ -3317,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>59</v>
       </c>
@@ -3349,7 +2780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>60</v>
       </c>
@@ -3381,13 +2812,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -3395,11 +2826,9 @@
       <c r="J57" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I57">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="I1:I57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8189E-37DF-4163-8B60-28A29197C706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,6 +65,9 @@
   </si>
   <si>
     <t>暴击率调整</t>
+  </si>
+  <si>
+    <t>初始解锁</t>
   </si>
   <si>
     <t>name</t>
@@ -232,6 +229,9 @@
     <t>crit</t>
   </si>
   <si>
+    <t>initialUnlock</t>
+  </si>
+  <si>
     <t>能量块</t>
   </si>
   <si>
@@ -621,20 +621,18 @@
   <si>
     <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
   </si>
-  <si>
-    <t>初始解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>initialUnlock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,13 +648,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +817,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -690,9 +1012,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -727,17 +1291,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -995,19 +1603,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1020,7 +1628,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,74 +1678,74 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>330</v>
@@ -1146,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3">
         <v>0.15</v>
@@ -1155,18 +1763,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>330</v>
@@ -1175,24 +1783,24 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>330</v>
@@ -1210,24 +1818,24 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>220</v>
@@ -1245,24 +1853,24 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>220</v>
@@ -1277,24 +1885,24 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>220</v>
@@ -1306,18 +1914,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4">
         <v>440</v>
@@ -1335,24 +1943,24 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>330</v>
@@ -1372,19 +1980,22 @@
       <c r="J10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>330</v>
@@ -1404,19 +2015,22 @@
       <c r="J11" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>330</v>
@@ -1434,21 +2048,24 @@
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>330</v>
@@ -1471,19 +2088,22 @@
       <c r="M13">
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4">
         <v>440</v>
@@ -1501,21 +2121,24 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>18</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>330</v>
@@ -1535,19 +2158,22 @@
       <c r="J15" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>19</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4">
         <v>440</v>
@@ -1567,19 +2193,22 @@
       <c r="J16" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>330</v>
@@ -1597,21 +2226,24 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>300</v>
@@ -1631,19 +2263,22 @@
       <c r="J18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>330</v>
@@ -1663,19 +2298,22 @@
       <c r="J19" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>25</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>220</v>
@@ -1695,19 +2333,22 @@
       <c r="J20" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>26</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>220</v>
@@ -1727,19 +2368,22 @@
       <c r="J21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>27</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>330</v>
@@ -1757,24 +2401,27 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>28</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>220</v>
@@ -1794,19 +2441,22 @@
       <c r="J23" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>29</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>220</v>
@@ -1822,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1830,19 +2480,22 @@
       <c r="L24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>30</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>220</v>
@@ -1858,24 +2511,27 @@
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>31</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>220</v>
@@ -1895,19 +2551,22 @@
       <c r="J26" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>32</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>220</v>
@@ -1927,19 +2586,22 @@
       <c r="J27" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>33</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>220</v>
@@ -1959,19 +2621,22 @@
       <c r="J28" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>34</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>220</v>
@@ -1991,19 +2656,22 @@
       <c r="J29" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>35</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>220</v>
@@ -2023,19 +2691,22 @@
       <c r="J30" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>330</v>
@@ -2055,19 +2726,22 @@
       <c r="J31" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>37</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>220</v>
@@ -2087,19 +2761,22 @@
       <c r="J32" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>38</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>220</v>
@@ -2119,19 +2796,22 @@
       <c r="J33" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>220</v>
@@ -2151,19 +2831,22 @@
       <c r="J34" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>220</v>
@@ -2183,19 +2866,22 @@
       <c r="J35" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>220</v>
@@ -2212,19 +2898,22 @@
       <c r="J36" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>330</v>
@@ -2236,24 +2925,27 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <v>330</v>
@@ -2265,24 +2957,27 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="4">
         <v>440</v>
@@ -2300,21 +2995,24 @@
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="4">
         <v>440</v>
@@ -2332,21 +3030,24 @@
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="4">
         <v>440</v>
@@ -2364,21 +3065,24 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E42" s="4">
         <v>440</v>
@@ -2396,21 +3100,24 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E43" s="4">
         <v>300</v>
@@ -2425,21 +3132,24 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>49</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E44">
         <v>330</v>
@@ -2459,19 +3169,22 @@
       <c r="J44" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>50</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>330</v>
@@ -2491,19 +3204,22 @@
       <c r="J45" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>51</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E46" s="4">
         <v>440</v>
@@ -2523,19 +3239,22 @@
       <c r="J46" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="28.5" spans="1:17">
       <c r="A47">
         <v>52</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E47" s="4">
         <v>440</v>
@@ -2555,19 +3274,22 @@
       <c r="J47" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>53</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E48" s="4">
         <v>440</v>
@@ -2587,19 +3309,22 @@
       <c r="J48" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>54</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E49" s="4">
         <v>440</v>
@@ -2619,19 +3344,22 @@
       <c r="J49" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>55</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E50" s="4">
         <v>440</v>
@@ -2651,19 +3379,22 @@
       <c r="J50" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E51" s="4">
         <v>440</v>
@@ -2683,19 +3414,22 @@
       <c r="J51" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E52" s="4">
         <v>440</v>
@@ -2715,19 +3449,22 @@
       <c r="J52" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E53" s="4">
         <v>440</v>
@@ -2747,19 +3484,22 @@
       <c r="J53" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E54">
         <v>550</v>
@@ -2779,19 +3519,22 @@
       <c r="J54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E55">
         <v>330</v>
@@ -2811,14 +3554,17 @@
       <c r="J55" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" s="1"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -2826,9 +3572,11 @@
       <c r="J57" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="I1:I57">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -426,19 +426,19 @@
     <t>水晶剑</t>
   </si>
   <si>
-    <t>暴击率提高25%,任意技能造成暴击后产生1层[兴奋]效果</t>
+    <t>暴击率提高15%,任意技能造成暴击后产生1层[兴奋]效果</t>
   </si>
   <si>
     <t>英勇斗篷</t>
   </si>
   <si>
-    <t>暴击率提升25%,每当暴击便回复1点能量。</t>
+    <t>暴击率提升15%,每当暴击便回复1点能量。</t>
   </si>
   <si>
     <t>冲锋面罩</t>
   </si>
   <si>
-    <t>暴击率提升25%,每当暴击便回复2点生命值。</t>
+    <t>暴击率提升15%,每当暴击便回复2点生命值。</t>
   </si>
   <si>
     <t>圣灵之源</t>
@@ -628,8 +628,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -648,8 +648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,33 +663,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,9 +694,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,14 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,21 +718,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,11 +747,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,13 +772,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +819,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -831,91 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,43 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,30 +1004,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,10 +1024,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1068,6 +1036,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,26 +1079,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,145 +1110,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1611,8 +1605,8 @@
   <sheetPr/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -235,7 +235,7 @@
     <t>能量块</t>
   </si>
   <si>
-    <t>每使用1张手牌，便回复0.5点能量，暴击率+15%</t>
+    <t>每使用1张手牌，便回复0.5点能量，暴击率+5%</t>
   </si>
   <si>
     <t>Icon_Ability_4</t>
@@ -627,9 +627,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -649,70 +649,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,8 +672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,18 +688,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,14 +758,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,7 +825,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,13 +861,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,67 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,43 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,6 +1004,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1026,7 +1076,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,45 +1086,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,27 +1104,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,133 +1122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1751,7 +1751,7 @@
         <v>36</v>
       </c>
       <c r="P3">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Q3">
         <v>1</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -308,7 +308,7 @@
     <t>琉璃甲</t>
   </si>
   <si>
-    <t>获得护甲时回复2能量，但受到伤害会被昏迷</t>
+    <t>获得护甲时回复1能量，但受到伤害会被昏迷</t>
   </si>
   <si>
     <t>荆棘之心</t>
@@ -432,7 +432,7 @@
     <t>英勇斗篷</t>
   </si>
   <si>
-    <t>暴击率提升15%,每当暴击便回复1点能量。</t>
+    <t>暴击率提升15%,每当暴击便回复0.5点能量。</t>
   </si>
   <si>
     <t>冲锋面罩</t>
@@ -621,16 +621,28 @@
   <si>
     <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
   </si>
+  <si>
+    <t>护身符</t>
+  </si>
+  <si>
+    <t>最大生命值+15</t>
+  </si>
+  <si>
+    <t>鹰盾</t>
+  </si>
+  <si>
+    <t>增加2点防御力</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -648,6 +660,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -656,19 +704,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,66 +735,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -758,35 +759,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,43 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +849,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,25 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,43 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,37 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,42 +1029,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,6 +1069,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1081,26 +1087,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,133 +1134,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1605,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1745,7 +1757,7 @@
         <v>330</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
@@ -1774,7 +1786,7 @@
         <v>330</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>36</v>
@@ -2948,7 +2960,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>36</v>
@@ -3552,18 +3564,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="J57" s="1"/>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <v>330</v>
+      </c>
+      <c r="F56">
+        <v>2047</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56">
+        <v>15</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57">
+        <v>330</v>
+      </c>
+      <c r="F57">
+        <v>2047</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:I57">

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADCC961-A909-4B53-AC2F-C41160DA6EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -633,18 +639,28 @@
   <si>
     <t>增加2点防御力</t>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5,6,7,8,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,151 +676,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,188 +707,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1018,251 +716,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1297,61 +753,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1609,19 +1021,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1634,7 +1046,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1769,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1795,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1830,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1865,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1897,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1920,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1955,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1990,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2025,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2060,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2098,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
@@ -2133,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -2168,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -2203,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -2238,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22</v>
       </c>
@@ -2273,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
@@ -2308,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -2343,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2378,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -2416,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>28</v>
       </c>
@@ -2451,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29</v>
       </c>
@@ -2490,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
@@ -2517,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2526,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31</v>
       </c>
@@ -2561,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>32</v>
       </c>
@@ -2596,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>33</v>
       </c>
@@ -2631,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>34</v>
       </c>
@@ -2666,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2701,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>36</v>
       </c>
@@ -2736,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37</v>
       </c>
@@ -2771,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2806,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39</v>
       </c>
@@ -2841,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40</v>
       </c>
@@ -2876,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41</v>
       </c>
@@ -2908,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42</v>
       </c>
@@ -2940,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>43</v>
       </c>
@@ -2972,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>44</v>
       </c>
@@ -3007,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>45</v>
       </c>
@@ -3042,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>46</v>
       </c>
@@ -3077,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>47</v>
       </c>
@@ -3112,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>48</v>
       </c>
@@ -3144,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>49</v>
       </c>
@@ -3179,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50</v>
       </c>
@@ -3214,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51</v>
       </c>
@@ -3249,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="28.5" spans="1:17">
+    <row r="47" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52</v>
       </c>
@@ -3284,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
@@ -3319,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>54</v>
       </c>
@@ -3354,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>55</v>
       </c>
@@ -3389,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>56</v>
       </c>
@@ -3424,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>57</v>
       </c>
@@ -3459,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>58</v>
       </c>
@@ -3494,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>59</v>
       </c>
@@ -3529,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>60</v>
       </c>
@@ -3564,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>61</v>
       </c>
@@ -3602,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>62</v>
       </c>
@@ -3641,11 +3053,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I57">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="I1:I57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADCC961-A909-4B53-AC2F-C41160DA6EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28455" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +348,7 @@
     <t>神力代价</t>
   </si>
   <si>
-    <t>战斗开始第12秒时获得一张“天降神锤”，但你的最大生命值降低10点</t>
+    <t>战斗开始第12秒时获得一张“天降神锤”，但你的最大生命值降低16点</t>
   </si>
   <si>
     <t>远古盟约</t>
@@ -408,7 +402,7 @@
     <t>玻璃大炮</t>
   </si>
   <si>
-    <t>攻击力+2，但受到的所有伤害增加1点</t>
+    <t>攻击力+2，但受到的所有伤害增加2点</t>
   </si>
   <si>
     <t>锯齿护臂</t>
@@ -427,6 +421,28 @@
   </si>
   <si>
     <t>增加1点防御力</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5,6,7,8,9</t>
+    </r>
   </si>
   <si>
     <t>水晶剑</t>
@@ -556,7 +572,7 @@
     <t>贴片装甲</t>
   </si>
   <si>
-    <t>本场战斗获得的总护甲数大于30时,立即回复10点能量值,每场战斗最多触发一次</t>
+    <t>本场战斗获得的总护甲数达到24时,立即回复10点能量值,每场战斗最多触发一次</t>
   </si>
   <si>
     <t>纳尔之心</t>
@@ -638,29 +654,19 @@
   </si>
   <si>
     <t>增加2点防御力</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,3,4,5,6,7,8,9</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,13 +682,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,8 +851,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -716,9 +1046,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -753,17 +1325,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1021,19 +1637,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1046,7 +1662,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1181,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1207,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1242,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1277,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1309,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1332,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1367,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1402,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1437,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1472,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1504,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1545,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1580,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1615,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1650,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>22</v>
       </c>
@@ -1685,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>23</v>
       </c>
@@ -1720,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1755,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1790,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1828,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1863,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1902,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1929,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1938,15 +2554,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>31</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -1973,15 +2589,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>32</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -2008,15 +2624,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>33</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -2043,15 +2659,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>34</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -2078,15 +2694,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>35</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -2113,15 +2729,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>39</v>
@@ -2148,15 +2764,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>37</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
@@ -2183,15 +2799,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>38</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
@@ -2218,15 +2834,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>39</v>
@@ -2253,15 +2869,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>39</v>
@@ -2288,15 +2904,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>39</v>
@@ -2320,15 +2936,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>39</v>
@@ -2352,15 +2968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>39</v>
@@ -2384,15 +3000,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>39</v>
@@ -2419,15 +3035,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>39</v>
@@ -2454,15 +3070,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>39</v>
@@ -2489,15 +3105,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>39</v>
@@ -2518,21 +3134,21 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>39</v>
@@ -2550,21 +3166,21 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>49</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
@@ -2591,15 +3207,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>50</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
@@ -2626,15 +3242,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>51</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
@@ -2661,15 +3277,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="28.5" spans="1:17">
       <c r="A47">
         <v>52</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
@@ -2696,15 +3312,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>53</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -2731,15 +3347,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>54</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
@@ -2766,15 +3382,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>55</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
@@ -2801,15 +3417,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
@@ -2836,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>57</v>
       </c>
@@ -2844,7 +3460,7 @@
         <v>68</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
         <v>39</v>
@@ -2871,15 +3487,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
         <v>39</v>
@@ -2906,15 +3522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
         <v>39</v>
@@ -2941,15 +3557,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>39</v>
@@ -2976,15 +3592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
         <v>42</v>
@@ -3014,15 +3630,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -3053,9 +3669,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="I1:I57">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\magic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F32BEB-2571-44F5-9250-89EFB6E62E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28455" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$61</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -308,6 +302,9 @@
     <t>沉重之斧</t>
   </si>
   <si>
+    <t>战斗外攻击力+3，但所有牌消耗增加1</t>
+  </si>
+  <si>
     <t>琉璃甲</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
     <t>远古盟约</t>
   </si>
   <si>
+    <t>每造成3次伤害你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
+  </si>
+  <si>
     <t>中和法典</t>
   </si>
   <si>
@@ -366,6 +366,9 @@
     <t>邪恶血脉</t>
   </si>
   <si>
+    <t>生命小于25%时战斗外攻击力+9，但你受到的所有伤害降会增加2点</t>
+  </si>
+  <si>
     <t>以攻为守</t>
   </si>
   <si>
@@ -399,6 +402,9 @@
     <t>玻璃大炮</t>
   </si>
   <si>
+    <t>战斗外攻击力+2，但受到的所有伤害增加1点</t>
+  </si>
+  <si>
     <t>锯齿护臂</t>
   </si>
   <si>
@@ -408,12 +414,37 @@
     <t>小匕首</t>
   </si>
   <si>
+    <t>增加1点战斗外攻击力，但防御力-1</t>
+  </si>
+  <si>
     <t>小圆盾</t>
   </si>
   <si>
     <t>增加1点防御力</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5,6,7,8,9</t>
+    </r>
+  </si>
+  <si>
     <t>水晶剑</t>
   </si>
   <si>
@@ -453,15 +484,56 @@
     <t>力量之铸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秒，并移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4层忏悔</t>
+    </r>
+  </si>
+  <si>
     <t>寒冰魔杖</t>
   </si>
   <si>
+    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
+  </si>
+  <si>
     <t>冰冷血脉</t>
   </si>
   <si>
+    <t>战斗中每隔6秒，将1张[冰枪术]置入手牌</t>
+  </si>
+  <si>
     <t>冰霜之心</t>
   </si>
   <si>
+    <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
+  </si>
+  <si>
     <t>点火器</t>
   </si>
   <si>
@@ -495,7 +567,32 @@
     <t>蓄水池</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本场战斗受到的总伤害超过20时,你将回复8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点生命值,每场战斗最多触发一次</t>
+    </r>
+  </si>
+  <si>
     <t>全副武装</t>
+  </si>
+  <si>
+    <t>当你的护甲层数大于10时,你的战斗外攻击力提高2点</t>
   </si>
   <si>
     <r>
@@ -523,84 +620,6 @@
     <t>贴片装甲</t>
   </si>
   <si>
-    <t>纳尔之心</t>
-  </si>
-  <si>
-    <t>战斗开始后给予敌人2层[忏悔]</t>
-  </si>
-  <si>
-    <t>狂热圣印</t>
-  </si>
-  <si>
-    <t>打出5张祝福牌后给与敌人一层[伤害加深]，只触发一次</t>
-  </si>
-  <si>
-    <t>特里克之眼</t>
-  </si>
-  <si>
-    <t>战斗开始6秒后能量上限降低7点持续8秒，但会获得3点攻击力至战斗结束</t>
-  </si>
-  <si>
-    <t>神王之手</t>
-  </si>
-  <si>
-    <t>每打出2张祝福牌会受到愤怒之光指引，若敌人至少有3层[忏悔]则造成7点伤害并移除1层[忏悔]</t>
-  </si>
-  <si>
-    <t>冲击战刃</t>
-  </si>
-  <si>
-    <t>自然铠甲</t>
-  </si>
-  <si>
-    <t>单次造成的伤害大于等于16点时回复10点生命，战斗开始12秒后清除此状态</t>
-  </si>
-  <si>
-    <t>魔血剑</t>
-  </si>
-  <si>
-    <t>天穹之凯</t>
-  </si>
-  <si>
-    <t>战斗开始后你的防御力+2，所有卡牌消耗-1，持续9秒</t>
-  </si>
-  <si>
-    <t>你的护甲的持续时间延长4秒</t>
-  </si>
-  <si>
-    <t>海兽脊骨</t>
-  </si>
-  <si>
-    <t>每打出2张防御牌给与敌人1层[易伤]</t>
-  </si>
-  <si>
-    <t>炎魔精魄</t>
-  </si>
-  <si>
-    <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
-  </si>
-  <si>
-    <t>爆炎魔杖</t>
-  </si>
-  <si>
-    <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
-  </si>
-  <si>
-    <t>护身符</t>
-  </si>
-  <si>
-    <t>最大生命值+15</t>
-  </si>
-  <si>
-    <t>鹰盾</t>
-  </si>
-  <si>
-    <t>增加2点防御力</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -609,52 +628,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,2,3,4,5,6,7,8,9</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中每隔6秒，将1张[冰枪术]置入手牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始6秒后对敌人施加2层[崩解]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每使用3张咒术牌对敌人施加2层[冰冷]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>透骨项链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽魂之戒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当[冰冷]叠加至10层时，回复7点生命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚀寒骨盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害时给敌人1层[易伤]与1层[冰冷]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>本场战斗获得的总护甲数达到24</t>
     </r>
     <r>
@@ -667,70 +640,110 @@
       </rPr>
       <t>时,立即回复10点能量值,每场战斗最多触发一次</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每造成3次伤害你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>秒，并移除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4层忏悔</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你的护甲层数大于10时,你的战斗外攻击力提高2点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗外攻击力+3，但所有牌消耗增加1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命小于25%时战斗外攻击力+9，但你受到的所有伤害降会增加2点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗外攻击力+2，但受到的所有伤害增加1点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加1点战斗外攻击力，但防御力-1</t>
+  </si>
+  <si>
+    <t>纳尔之心</t>
+  </si>
+  <si>
+    <t>战斗开始后给予敌人2层[忏悔]</t>
+  </si>
+  <si>
+    <t>狂热圣印</t>
+  </si>
+  <si>
+    <t>打出5张祝福牌后给与敌人一层[伤害加深]，只触发一次</t>
+  </si>
+  <si>
+    <t>特里克之眼</t>
+  </si>
+  <si>
+    <t>战斗开始6秒后能量上限降低7点持续8秒，但会获得3点攻击力至战斗结束</t>
+  </si>
+  <si>
+    <t>神王之手</t>
+  </si>
+  <si>
+    <t>每打出2张祝福牌会受到愤怒之光指引，若敌人至少有3层[忏悔]则造成7点伤害并移除1层[忏悔]</t>
+  </si>
+  <si>
+    <t>冲击战刃</t>
+  </si>
+  <si>
+    <t>战斗中每8秒对敌人施加1层[崩解]</t>
+  </si>
+  <si>
+    <t>自然铠甲</t>
+  </si>
+  <si>
+    <t>单次造成的伤害大于等于16点时回复10点生命，战斗开始12秒后清除此状态</t>
+  </si>
+  <si>
+    <t>魔血剑</t>
   </si>
   <si>
     <t>战斗中每隔6秒痛饮狂血，若有5层[兴奋]则将一张[狂躁之力*]置入手牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天穹之凯</t>
+  </si>
+  <si>
+    <t>战斗开始后你的防御力+2，所有卡牌消耗-1，持续9秒</t>
+  </si>
+  <si>
+    <t>你的护甲的持续时间延长4秒</t>
+  </si>
+  <si>
+    <t>海兽脊骨</t>
+  </si>
+  <si>
+    <t>每打出2张防御牌给与敌人1层[易伤]</t>
+  </si>
+  <si>
+    <t>炎魔精魄</t>
+  </si>
+  <si>
+    <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
+  </si>
+  <si>
+    <t>爆炎魔杖</t>
+  </si>
+  <si>
+    <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
+  </si>
+  <si>
+    <t>护身符</t>
+  </si>
+  <si>
+    <t>最大生命值+15</t>
+  </si>
+  <si>
+    <t>鹰盾</t>
+  </si>
+  <si>
+    <t>增加2点防御力</t>
+  </si>
+  <si>
+    <t>透骨项链</t>
+  </si>
+  <si>
+    <t>每使用3张咒术牌对敌人施加2层[冰冷]</t>
+  </si>
+  <si>
+    <t>幽魂之戒</t>
+  </si>
+  <si>
+    <t>每当[冰冷]叠加至10层时，回复7点生命</t>
+  </si>
+  <si>
+    <t>蚀寒骨盾</t>
+  </si>
+  <si>
+    <t>受到伤害时给敌人1层[易伤]与1层[冰冷]</t>
   </si>
   <si>
     <t>急救包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>本场战斗受到的总伤害超过20时,你将回复8</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -739,12 +752,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点生命值,每场战斗最多触发一次</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>本场战斗受到的总伤害超过</t>
     </r>
     <r>
@@ -762,7 +769,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -778,14 +784,47 @@
       </rPr>
       <t>点生命值,每场战斗最多触发一次</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔铸之铁</t>
+  </si>
+  <si>
+    <t>护甲的持续时间延长1秒</t>
+  </si>
+  <si>
+    <t>束缚绳索</t>
+  </si>
+  <si>
+    <t>战斗开始后将一张[迟缓]置入手牌</t>
+  </si>
+  <si>
+    <t>不稳定水晶</t>
+  </si>
+  <si>
+    <t>第一次对敌人造成伤害后回复5点能量，每场战斗只触发一次</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,7 +840,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -810,25 +850,159 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -838,12 +1012,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -851,48 +1205,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1150,19 +1791,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1175,7 +1816,7 @@
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,41 +1835,41 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1244,51 +1885,51 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
@@ -1300,7 +1941,7 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P3">
@@ -1310,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1329,21 +1970,21 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -1364,14 +2005,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1399,14 +2040,14 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1431,1047 +2072,1047 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" s="1" customFormat="1" spans="1:17">
+      <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1">
         <v>220</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:17">
+      <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1">
         <v>440</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>3001</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:17">
+      <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
         <v>330</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>3002</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
         <v>2</v>
       </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:17">
+      <c r="A11" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1">
         <v>330</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>3003</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
         <v>2</v>
       </c>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:17">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
         <v>330</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>3004</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:17">
+      <c r="A13" s="1">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
         <v>330</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>3005</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>-10</v>
       </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:17">
+      <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1">
         <v>440</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>3006</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:17">
+      <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1">
         <v>330</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>3007</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:17">
+      <c r="A16" s="1">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
         <v>440</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>3008</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
         <v>4</v>
       </c>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:17">
+      <c r="A17" s="1">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1">
         <v>330</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>2022</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:17">
+      <c r="A18" s="1">
         <v>22</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>1046</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>2</v>
       </c>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:17">
+      <c r="A19" s="1">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1">
         <v>330</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>1013</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
         <v>2</v>
       </c>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:17">
+      <c r="A20" s="1">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1">
         <v>220</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>2008</v>
       </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>2</v>
       </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:17">
+      <c r="A21" s="1">
         <v>26</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="B21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1">
         <v>220</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>1015</v>
       </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>2</v>
       </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:17">
+      <c r="A22" s="1">
         <v>27</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
         <v>330</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>3021</v>
       </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>2</v>
       </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:17">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="B23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1">
         <v>220</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>1017</v>
       </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>2</v>
       </c>
-      <c r="Q23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:17">
+      <c r="A24" s="1">
         <v>29</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1">
         <v>220</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="F24" s="4"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <v>-1</v>
       </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:17">
+      <c r="A25" s="1">
         <v>30</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1">
         <v>220</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="F25" s="4"/>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="J25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:17">
+      <c r="A26" s="1">
         <v>31</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1">
         <v>220</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>1024</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:17">
+      <c r="A27" s="1">
         <v>32</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="B27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1">
         <v>220</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>1028</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>3</v>
       </c>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:17">
+      <c r="A28" s="1">
         <v>33</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1">
         <v>220</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>1040</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <v>3</v>
       </c>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:17">
+      <c r="A29" s="1">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="B29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1">
         <v>220</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>2035</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <v>4</v>
       </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:17">
+      <c r="A30" s="1">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="B30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1">
         <v>220</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>1030</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <v>4</v>
       </c>
-      <c r="Q30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:17">
+      <c r="A31" s="1">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1">
         <v>330</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>2025</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
         <v>3</v>
       </c>
-      <c r="Q31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:17">
+      <c r="A32" s="1">
         <v>37</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="B32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="1">
         <v>220</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>2037</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <v>4</v>
       </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>38</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E33">
         <v>220</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>1033</v>
       </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <v>9</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>93</v>
+    <row r="34" s="2" customFormat="1" spans="1:17">
+      <c r="A34" s="2">
+        <v>39</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="7">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2">
         <v>220</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <v>2014</v>
       </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="7">
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="9">
         <v>9</v>
       </c>
-      <c r="Q34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:17">
+      <c r="A35" s="2">
         <v>40</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>94</v>
+      <c r="B35" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="7">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2">
         <v>330</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>1044</v>
       </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9">
         <v>9</v>
       </c>
-      <c r="Q35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>41</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E36">
         <v>220</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>4</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <v>11</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>42</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E37">
         <v>330</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N37">
@@ -2481,29 +3122,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>43</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E38">
         <v>330</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>2</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O38">
@@ -2513,125 +3154,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>44</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="1">
         <v>330</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>2508</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>45</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="B40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1">
         <v>440</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>2509</v>
       </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>46</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="1">
         <v>440</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>2510</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>47</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="B42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="1">
         <v>440</v>
       </c>
       <c r="F42">
@@ -2646,407 +3287,407 @@
       <c r="I42">
         <v>2</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>107</v>
+      <c r="J42" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" s="2" customFormat="1" spans="1:17">
+      <c r="A43" s="2">
         <v>48</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="B43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2">
         <v>300</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="2">
         <v>2512</v>
       </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="J43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:17">
+      <c r="A44" s="1">
         <v>49</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="B44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="1">
         <v>330</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>3048</v>
       </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1</v>
-      </c>
-      <c r="J44" s="4">
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
         <v>4</v>
       </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:17">
+      <c r="A45" s="1">
         <v>50</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="B45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="1">
         <v>330</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>3049</v>
       </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
         <v>4</v>
       </c>
-      <c r="Q45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:17">
+      <c r="A46" s="1">
         <v>51</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="B46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1">
         <v>440</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>3051</v>
       </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
         <v>2</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="1">
         <v>4</v>
       </c>
-      <c r="Q46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="28.5" spans="1:17">
+      <c r="A47" s="1">
         <v>52</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="B47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="1">
         <v>440</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="1">
         <v>3052</v>
       </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
         <v>2</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="1">
         <v>4</v>
       </c>
-      <c r="Q47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:17">
+      <c r="A48" s="1">
         <v>53</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="1">
+        <v>440</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3053</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:17">
+      <c r="A49" s="1">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="1">
+        <v>440</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3054</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:17">
+      <c r="A50" s="1">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="1">
+        <v>440</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3055</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:17">
+      <c r="A51" s="1">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="C51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1">
         <v>440</v>
       </c>
-      <c r="F48" s="4">
-        <v>3053</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="F51" s="1">
+        <v>3056</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
         <v>2</v>
       </c>
-      <c r="J48" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:17">
+      <c r="A52" s="1">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="1">
         <v>440</v>
       </c>
-      <c r="F49" s="4">
-        <v>3054</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
+      <c r="F52" s="1">
+        <v>3057</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>55</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:17">
+      <c r="A53" s="1">
+        <v>58</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="1">
         <v>440</v>
       </c>
-      <c r="F50" s="4">
-        <v>3055</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
+      <c r="F53" s="1">
+        <v>3058</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
         <v>2</v>
       </c>
-      <c r="J50" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>56</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="4">
-        <v>440</v>
-      </c>
-      <c r="F51" s="4">
-        <v>3056</v>
-      </c>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
+      <c r="J53" s="1">
         <v>2</v>
       </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>57</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="4">
-        <v>440</v>
-      </c>
-      <c r="F52" s="4">
-        <v>3057</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>2</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="4">
-        <v>440</v>
-      </c>
-      <c r="F53" s="4">
-        <v>3058</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
-        <v>2</v>
-      </c>
-      <c r="J53" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
         <v>39</v>
@@ -3054,7 +3695,7 @@
       <c r="E54">
         <v>550</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="14">
         <v>2528</v>
       </c>
       <c r="G54">
@@ -3073,50 +3714,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>60</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E55">
         <v>330</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="14">
         <v>2529</v>
       </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4">
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
         <v>11</v>
       </c>
       <c r="Q55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D56" t="s">
         <v>42</v>
@@ -3136,7 +3777,7 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M56">
@@ -3146,15 +3787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -3174,7 +3815,7 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L57">
@@ -3184,150 +3825,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+    <row r="58" s="2" customFormat="1" spans="1:17">
+      <c r="A58" s="2">
         <v>63</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>139</v>
+      <c r="B58" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="7">
+        <v>150</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="2">
         <v>220</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="2">
         <v>3127</v>
       </c>
-      <c r="G58" s="7">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="7">
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="9">
         <v>9</v>
       </c>
-      <c r="Q58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="Q58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:17">
+      <c r="A59" s="2">
         <v>64</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>140</v>
+      <c r="B59" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="7">
+        <v>152</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="2">
         <v>330</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="2">
         <v>3128</v>
       </c>
-      <c r="G59" s="7">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7">
-        <v>1</v>
-      </c>
-      <c r="I59" s="7">
-        <v>1</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9">
         <v>9</v>
       </c>
-      <c r="Q59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="Q59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:17">
+      <c r="A60" s="2">
         <v>65</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>143</v>
+      <c r="B60" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="7">
+        <v>154</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="2">
         <v>330</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="2">
         <v>3129</v>
       </c>
-      <c r="G60" s="7">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7">
-        <v>1</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1</v>
-      </c>
-      <c r="J60" s="8">
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="9">
         <v>9</v>
       </c>
-      <c r="Q60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>66</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="1">
         <v>220</v>
       </c>
       <c r="F61">
         <v>3132</v>
       </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4">
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
         <v>0</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
     </row>
+    <row r="62" s="1" customFormat="1" spans="1:17">
+      <c r="A62" s="1">
+        <v>67</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="1">
+        <v>220</v>
+      </c>
+      <c r="F62" s="15">
+        <v>3135</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:17">
+      <c r="A63">
+        <v>68</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="1">
+        <v>220</v>
+      </c>
+      <c r="F63" s="15">
+        <v>3136</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:17">
+      <c r="A64" s="1">
+        <v>69</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1">
+        <v>220</v>
+      </c>
+      <c r="F64" s="15">
+        <v>3137</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="I1:I60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="I1:I61">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="11670"/>
+    <workbookView windowWidth="28440" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$64</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -484,36 +484,7 @@
     <t>力量之铸</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>秒，并移除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4层忏悔</t>
-    </r>
+    <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8秒，并移除3层忏悔</t>
   </si>
   <si>
     <t>寒冰魔杖</t>
@@ -645,7 +616,7 @@
     <t>纳尔之心</t>
   </si>
   <si>
-    <t>战斗开始后给予敌人2层[忏悔]</t>
+    <t>战斗开始后给予敌人3层[忏悔]</t>
   </si>
   <si>
     <t>狂热圣印</t>
@@ -675,7 +646,7 @@
     <t>自然铠甲</t>
   </si>
   <si>
-    <t>单次造成的伤害大于等于16点时回复10点生命，战斗开始12秒后清除此状态</t>
+    <t>单次造成的伤害大于等于16点时回复6点生命，战斗开始20秒后清除此状态</t>
   </si>
   <si>
     <t>魔血剑</t>
@@ -812,19 +783,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,9 +805,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,16 +825,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,31 +856,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,30 +911,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,28 +925,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -983,9 +933,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,7 +969,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,139 +1095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,25 +1119,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,22 +1163,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,32 +1193,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,8 +1220,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,8 +1229,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,10 +1266,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,137 +1278,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1460,24 +1417,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1799,8 +1746,8 @@
   <sheetPr/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2109,7 +2056,7 @@
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2287,7 +2234,7 @@
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2357,7 +2304,7 @@
       <c r="B16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2389,10 +2336,10 @@
       <c r="A17" s="1">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2424,10 +2371,10 @@
       <c r="A18" s="1">
         <v>22</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2459,10 +2406,10 @@
       <c r="A19" s="1">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2494,10 +2441,10 @@
       <c r="A20" s="1">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2529,10 +2476,10 @@
       <c r="A21" s="1">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2564,10 +2511,10 @@
       <c r="A22" s="1">
         <v>27</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2602,10 +2549,10 @@
       <c r="A23" s="1">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2637,10 +2584,10 @@
       <c r="A24" s="1">
         <v>29</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2676,10 +2623,10 @@
       <c r="A25" s="1">
         <v>30</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2712,10 +2659,10 @@
       <c r="A26" s="1">
         <v>31</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2747,10 +2694,10 @@
       <c r="A27" s="1">
         <v>32</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2782,10 +2729,10 @@
       <c r="A28" s="1">
         <v>33</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2817,10 +2764,10 @@
       <c r="A29" s="1">
         <v>34</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2852,10 +2799,10 @@
       <c r="A30" s="1">
         <v>35</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2922,10 +2869,10 @@
       <c r="A32" s="1">
         <v>37</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2957,10 +2904,10 @@
       <c r="A33">
         <v>38</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2992,10 +2939,10 @@
       <c r="A34" s="2">
         <v>39</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3004,7 +2951,7 @@
       <c r="E34" s="2">
         <v>220</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>2014</v>
       </c>
       <c r="G34" s="2">
@@ -3016,7 +2963,7 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <v>9</v>
       </c>
       <c r="Q34" s="2">
@@ -3027,10 +2974,10 @@
       <c r="A35" s="2">
         <v>40</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3039,7 +2986,7 @@
       <c r="E35" s="2">
         <v>330</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>1044</v>
       </c>
       <c r="G35" s="2">
@@ -3051,7 +2998,7 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="7">
         <v>9</v>
       </c>
       <c r="Q35" s="2">
@@ -3161,7 +3108,7 @@
       <c r="B39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3231,7 +3178,7 @@
       <c r="B41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3266,7 +3213,7 @@
       <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3298,10 +3245,10 @@
       <c r="A43" s="2">
         <v>48</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -3322,7 +3269,7 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="7" t="s">
         <v>119</v>
       </c>
       <c r="Q43" s="2">
@@ -3476,7 +3423,7 @@
       <c r="B48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3546,7 +3493,7 @@
       <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3695,7 +3642,7 @@
       <c r="E54">
         <v>550</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="9">
         <v>2528</v>
       </c>
       <c r="G54">
@@ -3730,7 +3677,7 @@
       <c r="E55">
         <v>330</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="9">
         <v>2529</v>
       </c>
       <c r="G55" s="1">
@@ -3794,7 +3741,7 @@
       <c r="B57" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D57" t="s">
@@ -3829,10 +3776,10 @@
       <c r="A58" s="2">
         <v>63</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -3853,7 +3800,7 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="7">
         <v>9</v>
       </c>
       <c r="Q58" s="2">
@@ -3864,10 +3811,10 @@
       <c r="A59" s="2">
         <v>64</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -3888,7 +3835,7 @@
       <c r="I59" s="2">
         <v>1</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="7">
         <v>9</v>
       </c>
       <c r="Q59" s="2">
@@ -3899,10 +3846,10 @@
       <c r="A60" s="2">
         <v>65</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -3923,7 +3870,7 @@
       <c r="I60" s="2">
         <v>1</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="7">
         <v>9</v>
       </c>
       <c r="Q60" s="2">
@@ -3934,10 +3881,10 @@
       <c r="A61">
         <v>66</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3969,10 +3916,10 @@
       <c r="A62" s="1">
         <v>67</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3981,7 +3928,7 @@
       <c r="E62" s="1">
         <v>220</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="1">
         <v>3135</v>
       </c>
       <c r="G62" s="1">
@@ -4004,10 +3951,10 @@
       <c r="A63">
         <v>68</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4016,7 +3963,7 @@
       <c r="E63" s="1">
         <v>220</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="1">
         <v>3136</v>
       </c>
       <c r="G63" s="1">
@@ -4039,10 +3986,10 @@
       <c r="A64" s="1">
         <v>69</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4051,7 +3998,7 @@
       <c r="E64" s="1">
         <v>220</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="1">
         <v>3137</v>
       </c>
       <c r="G64" s="1">
@@ -4071,7 +4018,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I61">
+  <autoFilter ref="I1:I64">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -320,7 +320,7 @@
     <t>诅咒之书</t>
   </si>
   <si>
-    <t>你的暴击率提高40%，但战斗中每3秒都会失去生命</t>
+    <t>你的暴击率提高25%，但战斗中每3秒都会失去生命</t>
   </si>
   <si>
     <r>
@@ -812,29 +812,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,70 +834,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,7 +858,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,6 +897,52 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +969,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +1113,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,157 +1143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,16 +1164,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,6 +1193,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1203,16 +1218,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,42 +1260,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,133 +1278,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1746,8 +1746,8 @@
   <sheetPr/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -275,7 +275,7 @@
     <t>凸透镜</t>
   </si>
   <si>
-    <t>每次补牌时对敌人造成4点穿透伤害。</t>
+    <t>每次补牌时对敌人造成3点穿透伤害。</t>
   </si>
   <si>
     <t>Icon_Ability_3</t>
@@ -402,7 +402,36 @@
     <t>玻璃大炮</t>
   </si>
   <si>
-    <t>战斗外攻击力+2，但受到的所有伤害增加1点</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>战斗外攻击力+2，但受到的所有伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点</t>
+    </r>
   </si>
   <si>
     <t>锯齿护臂</t>
@@ -451,93 +480,6 @@
     <t>暴击率提高15%,任意技能造成暴击后产生1层[兴奋]效果</t>
   </si>
   <si>
-    <t>英勇斗篷</t>
-  </si>
-  <si>
-    <t>暴击率提升15%,每当暴击便回复0.5点能量。</t>
-  </si>
-  <si>
-    <t>冲锋面罩</t>
-  </si>
-  <si>
-    <t>暴击率提升15%,每当暴击便回复2点生命值。</t>
-  </si>
-  <si>
-    <t>圣灵之源</t>
-  </si>
-  <si>
-    <t>每打出3张祝福牌则生成一张[圣化]置入手牌</t>
-  </si>
-  <si>
-    <t>神圣法典</t>
-  </si>
-  <si>
-    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
-  </si>
-  <si>
-    <t>战斗意志</t>
-  </si>
-  <si>
-    <t>每打出2张攻击牌获得1层[兴奋]</t>
-  </si>
-  <si>
-    <t>力量之铸</t>
-  </si>
-  <si>
-    <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8秒，并移除3层忏悔</t>
-  </si>
-  <si>
-    <t>寒冰魔杖</t>
-  </si>
-  <si>
-    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
-  </si>
-  <si>
-    <t>冰冷血脉</t>
-  </si>
-  <si>
-    <t>战斗中每隔6秒，将1张[冰枪术]置入手牌</t>
-  </si>
-  <si>
-    <t>冰霜之心</t>
-  </si>
-  <si>
-    <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
-  </si>
-  <si>
-    <t>点火器</t>
-  </si>
-  <si>
-    <t>每次补牌对敌人附加1层点燃</t>
-  </si>
-  <si>
-    <t>蓝水晶</t>
-  </si>
-  <si>
-    <t>最大能量值增加2点</t>
-  </si>
-  <si>
-    <t>魔龙之眼</t>
-  </si>
-  <si>
-    <t>能量回复速度提高1点</t>
-  </si>
-  <si>
-    <t>暴徒刻印</t>
-  </si>
-  <si>
-    <t>单次造成的伤害大于等于8点,使你的暴击率提升5%,暴击率提升效果可叠加</t>
-  </si>
-  <si>
-    <t>不完全保险装置</t>
-  </si>
-  <si>
-    <t>单次受到的伤害大于等于12点时,你在接下来的2秒内有50%几率闪避所有伤害</t>
-  </si>
-  <si>
-    <t>蓄水池</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -546,7 +488,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>本场战斗受到的总伤害超过20时,你将回复8</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -556,8 +498,101 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点生命值,每场战斗最多触发一次</t>
+      <t>,11</t>
     </r>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+  </si>
+  <si>
+    <t>暴击率提升15%,每当暴击便回复0.5点能量。</t>
+  </si>
+  <si>
+    <t>3,11</t>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+  </si>
+  <si>
+    <t>暴击率提升15%,每当暴击便回复2点生命值。</t>
+  </si>
+  <si>
+    <t>圣灵之源</t>
+  </si>
+  <si>
+    <t>每打出3张祝福牌则生成一张[圣化]置入手牌</t>
+  </si>
+  <si>
+    <t>神圣法典</t>
+  </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
+  </si>
+  <si>
+    <t>战斗意志</t>
+  </si>
+  <si>
+    <t>每打出2张攻击牌获得1层[兴奋]</t>
+  </si>
+  <si>
+    <t>力量之铸</t>
+  </si>
+  <si>
+    <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8秒，并移除3层忏悔</t>
+  </si>
+  <si>
+    <t>寒冰魔杖</t>
+  </si>
+  <si>
+    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
+  </si>
+  <si>
+    <t>冰冷血脉</t>
+  </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[冰枪术]置入手牌</t>
+  </si>
+  <si>
+    <t>冰霜之心</t>
+  </si>
+  <si>
+    <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
+  </si>
+  <si>
+    <t>点火器</t>
+  </si>
+  <si>
+    <t>每次补牌对敌人附加1层点燃</t>
+  </si>
+  <si>
+    <t>蓝水晶</t>
+  </si>
+  <si>
+    <t>最大能量值增加2点</t>
+  </si>
+  <si>
+    <t>魔龙之眼</t>
+  </si>
+  <si>
+    <t>能量回复速度提高1点</t>
+  </si>
+  <si>
+    <t>暴徒刻印</t>
+  </si>
+  <si>
+    <t>单次造成的伤害大于等于7点,使你的暴击率提升5%,暴击率提升效果可叠加</t>
+  </si>
+  <si>
+    <t>不完全保险装置</t>
+  </si>
+  <si>
+    <t>单次受到的伤害大于等于12点时,你在接下来的2秒内有50%几率闪避所有伤害</t>
+  </si>
+  <si>
+    <t>蓄水池</t>
+  </si>
+  <si>
+    <t>本场战斗受到的总伤害超过18时,你将回复8点生命值,每场战斗最多触发一次</t>
   </si>
   <si>
     <t>全副武装</t>
@@ -715,46 +750,7 @@
     <t>急救包</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本场战斗受到的总伤害超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时,你将回复3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点生命值,每场战斗最多触发一次</t>
-    </r>
+    <t>本场战斗受到的总伤害超过14时,你将回复4点生命值,每场战斗最多触发一次</t>
   </si>
   <si>
     <t>熔铸之铁</t>
@@ -784,11 +780,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,8 +807,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,22 +829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -841,31 +836,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,8 +851,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,7 +930,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,40 +938,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,25 +972,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,67 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,25 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,19 +1092,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,17 +1181,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,26 +1238,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,34 +1263,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,146 +1281,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1425,6 +1429,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1746,8 +1751,8 @@
   <sheetPr/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="$A39:$XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1888,7 +1893,7 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P3">
@@ -1917,7 +1922,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q4">
@@ -1931,7 +1936,7 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -1952,7 +1957,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q5">
@@ -1987,7 +1992,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q6">
@@ -2019,7 +2024,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q7">
@@ -2033,7 +2038,7 @@
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2053,10 +2058,10 @@
       <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2077,7 +2082,7 @@
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q9" s="1">
@@ -2088,10 +2093,10 @@
       <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2112,7 +2117,7 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>2</v>
       </c>
       <c r="Q10" s="1">
@@ -2123,10 +2128,10 @@
       <c r="A11" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2147,7 +2152,7 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>2</v>
       </c>
       <c r="Q11" s="1">
@@ -2158,10 +2163,10 @@
       <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2182,7 +2187,7 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="Q12" s="1">
@@ -2193,10 +2198,10 @@
       <c r="A13" s="1">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2231,10 +2236,10 @@
       <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2255,7 +2260,7 @@
       <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q14" s="1">
@@ -2266,10 +2271,10 @@
       <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2301,10 +2306,10 @@
       <c r="A16" s="1">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2336,10 +2341,10 @@
       <c r="A17" s="1">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2360,7 +2365,7 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q17" s="1">
@@ -2371,10 +2376,10 @@
       <c r="A18" s="1">
         <v>22</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2383,7 +2388,7 @@
       <c r="E18" s="1">
         <v>300</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>1046</v>
       </c>
       <c r="G18" s="1">
@@ -2395,7 +2400,7 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>2</v>
       </c>
       <c r="Q18" s="1">
@@ -2406,10 +2411,10 @@
       <c r="A19" s="1">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2418,7 +2423,7 @@
       <c r="E19" s="1">
         <v>330</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>1013</v>
       </c>
       <c r="G19" s="1">
@@ -2430,7 +2435,7 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>2</v>
       </c>
       <c r="Q19" s="1">
@@ -2441,10 +2446,10 @@
       <c r="A20" s="1">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2453,7 +2458,7 @@
       <c r="E20" s="1">
         <v>220</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>2008</v>
       </c>
       <c r="G20" s="1">
@@ -2465,7 +2470,7 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>2</v>
       </c>
       <c r="Q20" s="1">
@@ -2476,10 +2481,10 @@
       <c r="A21" s="1">
         <v>26</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2500,7 +2505,7 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>2</v>
       </c>
       <c r="Q21" s="1">
@@ -2511,10 +2516,10 @@
       <c r="A22" s="1">
         <v>27</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2535,7 +2540,7 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="K22" s="1">
@@ -2549,10 +2554,10 @@
       <c r="A23" s="1">
         <v>28</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2573,7 +2578,7 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>2</v>
       </c>
       <c r="Q23" s="1">
@@ -2584,10 +2589,10 @@
       <c r="A24" s="1">
         <v>29</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2596,7 +2601,7 @@
       <c r="E24" s="1">
         <v>220</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
@@ -2606,7 +2611,7 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="K24" s="1">
@@ -2623,10 +2628,10 @@
       <c r="A25" s="1">
         <v>30</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2635,7 +2640,7 @@
       <c r="E25" s="1">
         <v>220</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2650,7 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="5" t="s">
         <v>84</v>
       </c>
       <c r="L25" s="1">
@@ -2659,10 +2664,10 @@
       <c r="A26" s="1">
         <v>31</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2671,7 +2676,7 @@
       <c r="E26" s="1">
         <v>220</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>1024</v>
       </c>
       <c r="G26" s="1">
@@ -2683,8 +2688,8 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="4">
-        <v>3</v>
+      <c r="J26" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -2694,11 +2699,11 @@
       <c r="A27" s="1">
         <v>32</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>39</v>
@@ -2706,7 +2711,7 @@
       <c r="E27" s="1">
         <v>220</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>1028</v>
       </c>
       <c r="G27" s="1">
@@ -2718,8 +2723,8 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="4">
-        <v>3</v>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="Q27" s="1">
         <v>1</v>
@@ -2729,11 +2734,11 @@
       <c r="A28" s="1">
         <v>33</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>90</v>
+      <c r="B28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>39</v>
@@ -2753,8 +2758,8 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="4">
-        <v>3</v>
+      <c r="J28" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -2764,11 +2769,11 @@
       <c r="A29" s="1">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>92</v>
+      <c r="B29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
@@ -2788,7 +2793,7 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <v>4</v>
       </c>
       <c r="Q29" s="1">
@@ -2799,11 +2804,11 @@
       <c r="A30" s="1">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>94</v>
+      <c r="B30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>39</v>
@@ -2811,7 +2816,7 @@
       <c r="E30" s="1">
         <v>220</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>1030</v>
       </c>
       <c r="G30" s="1">
@@ -2823,7 +2828,7 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>4</v>
       </c>
       <c r="Q30" s="1">
@@ -2834,11 +2839,11 @@
       <c r="A31" s="1">
         <v>36</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>96</v>
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>39</v>
@@ -2846,7 +2851,7 @@
       <c r="E31" s="1">
         <v>330</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>2025</v>
       </c>
       <c r="G31" s="1">
@@ -2858,7 +2863,7 @@
       <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>3</v>
       </c>
       <c r="Q31" s="1">
@@ -2869,11 +2874,11 @@
       <c r="A32" s="1">
         <v>37</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>98</v>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>39</v>
@@ -2881,7 +2886,7 @@
       <c r="E32" s="1">
         <v>220</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>2037</v>
       </c>
       <c r="G32" s="1">
@@ -2893,7 +2898,7 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <v>4</v>
       </c>
       <c r="Q32" s="1">
@@ -2904,11 +2909,11 @@
       <c r="A33">
         <v>38</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>100</v>
+      <c r="B33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>39</v>
@@ -2928,7 +2933,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="5">
         <v>9</v>
       </c>
       <c r="Q33">
@@ -2939,11 +2944,11 @@
       <c r="A34" s="2">
         <v>39</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>102</v>
+      <c r="B34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
@@ -2951,7 +2956,7 @@
       <c r="E34" s="2">
         <v>220</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>2014</v>
       </c>
       <c r="G34" s="2">
@@ -2963,7 +2968,7 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="8">
         <v>9</v>
       </c>
       <c r="Q34" s="2">
@@ -2974,11 +2979,11 @@
       <c r="A35" s="2">
         <v>40</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>104</v>
+      <c r="B35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
@@ -2986,7 +2991,7 @@
       <c r="E35" s="2">
         <v>330</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>1044</v>
       </c>
       <c r="G35" s="2">
@@ -2998,7 +3003,7 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="8">
         <v>9</v>
       </c>
       <c r="Q35" s="2">
@@ -3010,10 +3015,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>39</v>
@@ -3021,7 +3026,7 @@
       <c r="E36">
         <v>220</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>4</v>
       </c>
       <c r="H36" s="1">
@@ -3030,7 +3035,7 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <v>11</v>
       </c>
       <c r="Q36">
@@ -3041,11 +3046,11 @@
       <c r="A37">
         <v>42</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>108</v>
+      <c r="B37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>39</v>
@@ -3059,7 +3064,7 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="N37">
@@ -3073,11 +3078,11 @@
       <c r="A38">
         <v>43</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>110</v>
+      <c r="B38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>39</v>
@@ -3091,7 +3096,7 @@
       <c r="I38" s="1">
         <v>2</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O38">
@@ -3105,11 +3110,11 @@
       <c r="A39">
         <v>44</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>112</v>
+      <c r="B39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>39</v>
@@ -3129,7 +3134,7 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q39">
@@ -3140,11 +3145,11 @@
       <c r="A40">
         <v>45</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>114</v>
+      <c r="B40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>39</v>
@@ -3164,7 +3169,7 @@
       <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q40">
@@ -3175,11 +3180,11 @@
       <c r="A41">
         <v>46</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>116</v>
+      <c r="B41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>39</v>
@@ -3199,7 +3204,7 @@
       <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q41">
@@ -3211,10 +3216,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>39</v>
@@ -3235,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -3245,11 +3250,11 @@
       <c r="A43" s="2">
         <v>48</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>121</v>
+      <c r="B43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
@@ -3269,8 +3274,8 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>119</v>
+      <c r="J43" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="Q43" s="2">
         <v>1</v>
@@ -3280,11 +3285,11 @@
       <c r="A44" s="1">
         <v>49</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>123</v>
+      <c r="B44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>39</v>
@@ -3315,11 +3320,11 @@
       <c r="A45" s="1">
         <v>50</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>125</v>
+      <c r="B45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>39</v>
@@ -3350,11 +3355,11 @@
       <c r="A46" s="1">
         <v>51</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>127</v>
+      <c r="B46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>39</v>
@@ -3385,11 +3390,11 @@
       <c r="A47" s="1">
         <v>52</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>129</v>
+      <c r="B47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>39</v>
@@ -3420,11 +3425,11 @@
       <c r="A48" s="1">
         <v>53</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>131</v>
+      <c r="B48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>39</v>
@@ -3444,8 +3449,8 @@
       <c r="I48" s="1">
         <v>2</v>
       </c>
-      <c r="J48" s="1">
-        <v>3</v>
+      <c r="J48" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Q48" s="1">
         <v>1</v>
@@ -3455,11 +3460,11 @@
       <c r="A49" s="1">
         <v>54</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>133</v>
+      <c r="B49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>39</v>
@@ -3490,11 +3495,11 @@
       <c r="A50" s="1">
         <v>55</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>135</v>
+      <c r="B50" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>39</v>
@@ -3525,11 +3530,11 @@
       <c r="A51" s="1">
         <v>56</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>137</v>
+      <c r="B51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>39</v>
@@ -3560,11 +3565,11 @@
       <c r="A52" s="1">
         <v>57</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>138</v>
+      <c r="C52" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>39</v>
@@ -3595,11 +3600,11 @@
       <c r="A53" s="1">
         <v>58</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>140</v>
+      <c r="B53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>39</v>
@@ -3631,10 +3636,10 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
         <v>39</v>
@@ -3642,7 +3647,7 @@
       <c r="E54">
         <v>550</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="10">
         <v>2528</v>
       </c>
       <c r="G54">
@@ -3665,11 +3670,11 @@
       <c r="A55">
         <v>60</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>144</v>
+      <c r="B55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>39</v>
@@ -3677,7 +3682,7 @@
       <c r="E55">
         <v>330</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="10">
         <v>2529</v>
       </c>
       <c r="G55" s="1">
@@ -3701,10 +3706,10 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
         <v>42</v>
@@ -3724,7 +3729,7 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="5" t="s">
         <v>36</v>
       </c>
       <c r="M56">
@@ -3739,10 +3744,10 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -3762,7 +3767,7 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L57">
@@ -3776,11 +3781,11 @@
       <c r="A58" s="2">
         <v>63</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>150</v>
+      <c r="B58" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>39</v>
@@ -3800,7 +3805,7 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="8">
         <v>9</v>
       </c>
       <c r="Q58" s="2">
@@ -3811,11 +3816,11 @@
       <c r="A59" s="2">
         <v>64</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>152</v>
+      <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>39</v>
@@ -3835,7 +3840,7 @@
       <c r="I59" s="2">
         <v>1</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="8">
         <v>9</v>
       </c>
       <c r="Q59" s="2">
@@ -3846,11 +3851,11 @@
       <c r="A60" s="2">
         <v>65</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>154</v>
+      <c r="B60" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>39</v>
@@ -3870,7 +3875,7 @@
       <c r="I60" s="2">
         <v>1</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="8">
         <v>9</v>
       </c>
       <c r="Q60" s="2">
@@ -3881,11 +3886,11 @@
       <c r="A61">
         <v>66</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>156</v>
+      <c r="B61" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>39</v>
@@ -3905,7 +3910,7 @@
       <c r="I61" s="1">
         <v>0</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q61">
@@ -3916,11 +3921,11 @@
       <c r="A62" s="1">
         <v>67</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>158</v>
+      <c r="B62" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>39</v>
@@ -3940,7 +3945,7 @@
       <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="5">
         <v>2</v>
       </c>
       <c r="Q62" s="1">
@@ -3951,11 +3956,11 @@
       <c r="A63">
         <v>68</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>160</v>
+      <c r="B63" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>39</v>
@@ -3975,7 +3980,7 @@
       <c r="I63" s="1">
         <v>0</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q63" s="1">
@@ -3986,11 +3991,11 @@
       <c r="A64" s="1">
         <v>69</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>162</v>
+      <c r="B64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>39</v>
@@ -4010,8 +4015,8 @@
       <c r="I64" s="1">
         <v>0</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>163</v>
+      <c r="J64" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="Q64" s="1">
         <v>1</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,19 +354,19 @@
     <t>远古盟约</t>
   </si>
   <si>
-    <t>每造成3次伤害你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
+    <t>每造成4次伤害你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
   </si>
   <si>
     <t>中和法典</t>
   </si>
   <si>
-    <t>受到的所有伤害降低2点，但受到伤害会减少1能量</t>
+    <t>受到的所有伤害降低3点，但受到伤害会减少1能量</t>
   </si>
   <si>
     <t>邪恶血脉</t>
   </si>
   <si>
-    <t>生命小于25%时战斗外攻击力+9，但你受到的所有伤害降会增加2点</t>
+    <t>每当打出咒术牌时对敌人施加1层[易伤]，但每隔12秒会受到“疑惑”</t>
   </si>
   <si>
     <t>以攻为守</t>
@@ -781,17 +781,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,23 +800,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,38 +837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,17 +854,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,17 +884,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,9 +907,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,14 +938,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,7 +965,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,49 +1067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,19 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,79 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,6 +1156,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1181,17 +1198,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,35 +1218,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,11 +1250,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,10 +1262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1281,155 +1274,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1751,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="$A39:$XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1893,7 +1884,7 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P3">
@@ -1922,7 +1913,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q4">
@@ -1936,7 +1927,7 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -1957,7 +1948,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q5">
@@ -1992,7 +1983,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q6">
@@ -2024,7 +2015,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q7">
@@ -2038,7 +2029,7 @@
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2054,286 +2045,286 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:17">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" spans="1:17">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
         <v>440</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>3001</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:17">
-      <c r="A10" s="1">
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:17">
+      <c r="A10" s="2">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
         <v>330</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>3002</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
         <v>2</v>
       </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:17">
-      <c r="A11" s="1">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:17">
+      <c r="A11" s="2">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2">
         <v>330</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>3003</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>2</v>
       </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:17">
-      <c r="A12" s="1">
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:17">
+      <c r="A12" s="2">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
         <v>330</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>3004</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:17">
-      <c r="A13" s="1">
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:17">
+      <c r="A13" s="2">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2">
         <v>330</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>3005</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>-10</v>
       </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:17">
-      <c r="A14" s="1">
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:17">
+      <c r="A14" s="2">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
         <v>440</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>3006</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:17">
-      <c r="A15" s="1">
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:17">
+      <c r="A15" s="2">
         <v>18</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
         <v>330</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>3007</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <v>4</v>
       </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:17">
-      <c r="A16" s="1">
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:17">
+      <c r="A16" s="2">
         <v>19</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
         <v>440</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>3008</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>4</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2365,7 +2356,7 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q17" s="1">
@@ -2388,7 +2379,7 @@
       <c r="E18" s="1">
         <v>300</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1046</v>
       </c>
       <c r="G18" s="1">
@@ -2400,7 +2391,7 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>2</v>
       </c>
       <c r="Q18" s="1">
@@ -2423,7 +2414,7 @@
       <c r="E19" s="1">
         <v>330</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1013</v>
       </c>
       <c r="G19" s="1">
@@ -2435,7 +2426,7 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>2</v>
       </c>
       <c r="Q19" s="1">
@@ -2458,7 +2449,7 @@
       <c r="E20" s="1">
         <v>220</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>2008</v>
       </c>
       <c r="G20" s="1">
@@ -2470,7 +2461,7 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>2</v>
       </c>
       <c r="Q20" s="1">
@@ -2505,7 +2496,7 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>2</v>
       </c>
       <c r="Q21" s="1">
@@ -2540,7 +2531,7 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K22" s="1">
@@ -2578,7 +2569,7 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>2</v>
       </c>
       <c r="Q23" s="1">
@@ -2601,7 +2592,7 @@
       <c r="E24" s="1">
         <v>220</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
@@ -2611,7 +2602,7 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K24" s="1">
@@ -2640,7 +2631,7 @@
       <c r="E25" s="1">
         <v>220</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
@@ -2650,7 +2641,7 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>84</v>
       </c>
       <c r="L25" s="1">
@@ -2676,7 +2667,7 @@
       <c r="E26" s="1">
         <v>220</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>1024</v>
       </c>
       <c r="G26" s="1">
@@ -2688,7 +2679,7 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="4" t="s">
         <v>87</v>
       </c>
       <c r="Q26" s="1">
@@ -2711,7 +2702,7 @@
       <c r="E27" s="1">
         <v>220</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>1028</v>
       </c>
       <c r="G27" s="1">
@@ -2723,7 +2714,7 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="4" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="1">
@@ -2758,7 +2749,7 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="4" t="s">
         <v>87</v>
       </c>
       <c r="Q28" s="1">
@@ -2793,7 +2784,7 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>4</v>
       </c>
       <c r="Q29" s="1">
@@ -2816,7 +2807,7 @@
       <c r="E30" s="1">
         <v>220</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>1030</v>
       </c>
       <c r="G30" s="1">
@@ -2828,7 +2819,7 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>4</v>
       </c>
       <c r="Q30" s="1">
@@ -2839,10 +2830,10 @@
       <c r="A31" s="1">
         <v>36</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2851,7 +2842,7 @@
       <c r="E31" s="1">
         <v>330</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>2025</v>
       </c>
       <c r="G31" s="1">
@@ -2863,7 +2854,7 @@
       <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>3</v>
       </c>
       <c r="Q31" s="1">
@@ -2886,7 +2877,7 @@
       <c r="E32" s="1">
         <v>220</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>2037</v>
       </c>
       <c r="G32" s="1">
@@ -2898,7 +2889,7 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>4</v>
       </c>
       <c r="Q32" s="1">
@@ -2933,80 +2924,80 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>9</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:17">
-      <c r="A34" s="2">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:17">
+      <c r="A34" s="1">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1">
         <v>220</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="4">
         <v>2014</v>
       </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
         <v>0</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="4">
         <v>9</v>
       </c>
-      <c r="Q34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:17">
-      <c r="A35" s="2">
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:17">
+      <c r="A35" s="1">
         <v>40</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1">
         <v>330</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="4">
         <v>1044</v>
       </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
         <v>9</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3026,7 +3017,7 @@
       <c r="E36">
         <v>220</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>4</v>
       </c>
       <c r="H36" s="1">
@@ -3035,7 +3026,7 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>11</v>
       </c>
       <c r="Q36">
@@ -3046,10 +3037,10 @@
       <c r="A37">
         <v>42</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3064,7 +3055,7 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N37">
@@ -3078,10 +3069,10 @@
       <c r="A38">
         <v>43</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3096,7 +3087,7 @@
       <c r="I38" s="1">
         <v>2</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O38">
@@ -3110,7 +3101,7 @@
       <c r="A39">
         <v>44</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3134,7 +3125,7 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q39">
@@ -3145,10 +3136,10 @@
       <c r="A40">
         <v>45</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3169,7 +3160,7 @@
       <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q40">
@@ -3180,10 +3171,10 @@
       <c r="A41">
         <v>46</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3204,7 +3195,7 @@
       <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q41">
@@ -3246,38 +3237,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:17">
-      <c r="A43" s="2">
+    <row r="43" s="1" customFormat="1" spans="1:17">
+      <c r="A43" s="1">
         <v>48</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="1">
         <v>300</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>2512</v>
       </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
         <v>0</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3285,10 +3276,10 @@
       <c r="A44" s="1">
         <v>49</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3320,10 +3311,10 @@
       <c r="A45" s="1">
         <v>50</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3355,10 +3346,10 @@
       <c r="A46" s="1">
         <v>51</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3390,10 +3381,10 @@
       <c r="A47" s="1">
         <v>52</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3425,10 +3416,10 @@
       <c r="A48" s="1">
         <v>53</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3449,7 +3440,7 @@
       <c r="I48" s="1">
         <v>2</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="4" t="s">
         <v>87</v>
       </c>
       <c r="Q48" s="1">
@@ -3460,10 +3451,10 @@
       <c r="A49" s="1">
         <v>54</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3495,10 +3486,10 @@
       <c r="A50" s="1">
         <v>55</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3530,10 +3521,10 @@
       <c r="A51" s="1">
         <v>56</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3565,10 +3556,10 @@
       <c r="A52" s="1">
         <v>57</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3600,10 +3591,10 @@
       <c r="A53" s="1">
         <v>58</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3647,7 +3638,7 @@
       <c r="E54">
         <v>550</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>2528</v>
       </c>
       <c r="G54">
@@ -3670,10 +3661,10 @@
       <c r="A55">
         <v>60</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3682,7 +3673,7 @@
       <c r="E55">
         <v>330</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>2529</v>
       </c>
       <c r="G55" s="1">
@@ -3729,7 +3720,7 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M56">
@@ -3767,7 +3758,7 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L57">
@@ -3777,108 +3768,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:17">
-      <c r="A58" s="2">
+    <row r="58" s="1" customFormat="1" spans="1:17">
+      <c r="A58" s="1">
         <v>63</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="1">
         <v>220</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>3127</v>
       </c>
-      <c r="G58" s="2">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
         <v>0</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="4">
         <v>9</v>
       </c>
-      <c r="Q58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:17">
-      <c r="A59" s="2">
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:17">
+      <c r="A59" s="1">
         <v>64</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="1">
         <v>330</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>3128</v>
       </c>
-      <c r="G59" s="2">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
         <v>9</v>
       </c>
-      <c r="Q59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:17">
-      <c r="A60" s="2">
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:17">
+      <c r="A60" s="1">
         <v>65</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="1">
         <v>330</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>3129</v>
       </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1</v>
-      </c>
-      <c r="J60" s="8">
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4">
         <v>9</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3886,10 +3877,10 @@
       <c r="A61">
         <v>66</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3910,7 +3901,7 @@
       <c r="I61" s="1">
         <v>0</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q61">
@@ -3945,7 +3936,7 @@
       <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>2</v>
       </c>
       <c r="Q62" s="1">
@@ -3980,7 +3971,7 @@
       <c r="I63" s="1">
         <v>0</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="4" t="s">
         <v>36</v>
       </c>
       <c r="Q63" s="1">
@@ -4015,7 +4006,7 @@
       <c r="I64" s="1">
         <v>0</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="J64" s="4" t="s">
         <v>165</v>
       </c>
       <c r="Q64" s="1">

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -574,7 +574,7 @@
     <t>魔龙之眼</t>
   </si>
   <si>
-    <t>能量回复速度提高1点</t>
+    <t>能量回复速度提高1点，但攻击力-1</t>
   </si>
   <si>
     <t>暴徒刻印</t>
@@ -781,8 +781,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -800,46 +800,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,16 +831,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,40 +855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,8 +876,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,7 +915,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,37 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,19 +977,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +1043,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,96 +1140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,26 +1159,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,41 +1194,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,7 +1217,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,10 +1262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,133 +1274,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1742,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3090,6 +3090,9 @@
       <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
       <c r="O38">
         <v>1</v>
       </c>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -314,7 +314,7 @@
     <t>荆棘之心</t>
   </si>
   <si>
-    <t>格挡时造成8点伤害，但能量回复-1</t>
+    <t>格挡时造成6点伤害，但能量上限-2</t>
   </si>
   <si>
     <t>诅咒之书</t>
@@ -562,7 +562,7 @@
     <t>点火器</t>
   </si>
   <si>
-    <t>每次补牌对敌人附加1层点燃</t>
+    <t>每2次补牌对敌人附加1层点燃</t>
   </si>
   <si>
     <t>蓝水晶</t>
@@ -732,7 +732,7 @@
     <t>透骨项链</t>
   </si>
   <si>
-    <t>每使用3张咒术牌对敌人施加2层[冰冷]</t>
+    <t>每使用2张咒术牌对敌人施加2层[冰冷]</t>
   </si>
   <si>
     <t>幽魂之戒</t>
@@ -779,10 +779,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -800,9 +800,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,21 +844,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -839,31 +852,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,6 +869,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,21 +899,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +922,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,16 +936,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,7 +965,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,13 +1025,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,133 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,6 +1156,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1183,17 +1207,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,11 +1231,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,40 +1256,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,31 +1274,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1307,100 +1307,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2146,6 +2146,9 @@
       <c r="J11" s="6">
         <v>2</v>
       </c>
+      <c r="N11" s="2">
+        <v>-2</v>
+      </c>
       <c r="Q11" s="2">
         <v>1</v>
       </c>
@@ -3017,8 +3020,8 @@
       <c r="E36">
         <v>220</v>
       </c>
-      <c r="F36" s="4">
-        <v>4</v>
+      <c r="F36">
+        <v>3164</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595E67C-3726-42F1-84AB-9804309E1495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -773,18 +779,76 @@
   <si>
     <t>1,3,4</t>
   </si>
+  <si>
+    <t>补牌数量调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealCardsNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始发牌数调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发补牌最小值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoDealCardsMinValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startBattleDealCardsNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发补牌的最小手牌数+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小齿轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补牌数+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始补牌数+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补牌数-2，攻击力+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏糊的蛛丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补牌数-1，暴击率+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大粗筒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,151 +864,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,194 +905,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1158,253 +914,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1421,62 +935,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1734,19 +1208,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1757,9 +1234,13 @@
     <col min="14" max="14" width="14.5" customWidth="1"/>
     <col min="15" max="15" width="16.25" customWidth="1"/>
     <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="14.625" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1811,8 +1292,17 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1864,8 +1354,17 @@
       <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1894,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1920,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1955,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1990,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -2022,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:17">
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -2045,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:17">
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -2080,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:17">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -2115,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:17">
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>14</v>
       </c>
@@ -2153,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:17">
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -2188,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:17">
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -2226,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:17">
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -2261,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:17">
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -2296,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:17">
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -2331,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -2366,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>22</v>
       </c>
@@ -2401,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>23</v>
       </c>
@@ -2436,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -2471,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -2506,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -2544,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -2579,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -2618,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>30</v>
       </c>
@@ -2654,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>31</v>
       </c>
@@ -2689,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>32</v>
       </c>
@@ -2724,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>33</v>
       </c>
@@ -2759,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>34</v>
       </c>
@@ -2794,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>35</v>
       </c>
@@ -2829,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>36</v>
       </c>
@@ -2864,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37</v>
       </c>
@@ -2899,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2934,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>39</v>
       </c>
@@ -2969,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40</v>
       </c>
@@ -3004,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41</v>
       </c>
@@ -3036,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42</v>
       </c>
@@ -3068,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>43</v>
       </c>
@@ -3103,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>44</v>
       </c>
@@ -3138,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>45</v>
       </c>
@@ -3173,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>46</v>
       </c>
@@ -3208,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>47</v>
       </c>
@@ -3243,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>48</v>
       </c>
@@ -3278,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>49</v>
       </c>
@@ -3313,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>50</v>
       </c>
@@ -3348,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>51</v>
       </c>
@@ -3383,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="28.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>52</v>
       </c>
@@ -3418,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>53</v>
       </c>
@@ -3453,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>54</v>
       </c>
@@ -3488,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>55</v>
       </c>
@@ -3523,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>56</v>
       </c>
@@ -3558,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>57</v>
       </c>
@@ -3593,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>58</v>
       </c>
@@ -3628,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>59</v>
       </c>
@@ -3663,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>60</v>
       </c>
@@ -3698,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>61</v>
       </c>
@@ -3736,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>62</v>
       </c>
@@ -3774,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>63</v>
       </c>
@@ -3809,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>64</v>
       </c>
@@ -3844,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>65</v>
       </c>
@@ -3879,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>66</v>
       </c>
@@ -3914,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>67</v>
       </c>
@@ -3949,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>68</v>
       </c>
@@ -3984,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>69</v>
       </c>
@@ -4019,12 +3518,140 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>70</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="1">
+        <v>300</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>71</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="1">
+        <v>300</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>72</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="1">
+        <v>300</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>73</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="1">
+        <v>300</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>74</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="1">
+        <v>300</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="1">
+        <v>300</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="I1:I64">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="I1:I64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -968,19 +968,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,30 +989,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,15 +1014,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,42 +1035,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,8 +1049,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,13 +1088,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,7 +1097,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,13 +1154,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,97 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,13 +1220,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,37 +1322,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,6 +1345,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1377,11 +1387,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,66 +1445,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1477,16 +1463,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,144 +1481,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1955,11 +1932,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2037,7 +2014,7 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2093,13 +2070,13 @@
       <c r="Q2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2186,7 +2163,7 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="1">
@@ -3004,7 +2981,7 @@
       <c r="B29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3313,10 +3290,10 @@
       <c r="A38" s="1">
         <v>44</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3337,7 +3314,7 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q38" s="1">
@@ -3351,7 +3328,7 @@
       <c r="B39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -3488,7 +3465,7 @@
       <c r="A43" s="1">
         <v>49</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3850,7 +3827,7 @@
       <c r="E53">
         <v>550</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="9">
         <v>2528</v>
       </c>
       <c r="G53">
@@ -3885,7 +3862,7 @@
       <c r="E54">
         <v>330</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <v>2529</v>
       </c>
       <c r="G54" s="2">
@@ -4022,7 +3999,7 @@
       <c r="B58" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4057,7 +4034,7 @@
       <c r="B59" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -4229,10 +4206,10 @@
       <c r="A64" s="2">
         <v>70</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -4255,10 +4232,10 @@
       <c r="A65" s="2">
         <v>71</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -4281,10 +4258,10 @@
       <c r="A66" s="2">
         <v>72</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -4307,10 +4284,10 @@
       <c r="A67" s="2">
         <v>73</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -4336,10 +4313,10 @@
       <c r="A68" s="2">
         <v>74</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -4365,13 +4342,13 @@
       <c r="A69" s="2">
         <v>75</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="2">
@@ -4400,10 +4377,10 @@
       <c r="A70" s="2">
         <v>76</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4432,10 +4409,10 @@
       <c r="A71" s="2">
         <v>77</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -4456,7 +4433,7 @@
       <c r="I71" s="2">
         <v>1</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="5" t="s">
         <v>186</v>
       </c>
       <c r="Q71" s="2">
@@ -4467,10 +4444,10 @@
       <c r="A72" s="2">
         <v>78</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -4502,10 +4479,10 @@
       <c r="A73" s="2">
         <v>79</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -4537,10 +4514,10 @@
       <c r="A74" s="2">
         <v>80</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>192</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -4569,10 +4546,10 @@
       <c r="A75" s="2">
         <v>81</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4601,10 +4578,10 @@
       <c r="A76" s="2">
         <v>82</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="6" t="s">
         <v>196</v>
       </c>
       <c r="D76" s="2" t="s">

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\magic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5656900C-0C61-4E92-9EB4-2D08874FF205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -106,6 +113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,6 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,6 +137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,6 +162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,6 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,6 +186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,6 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,6 +221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,6 +234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,6 +245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -274,6 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,6 +366,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,6 +377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,6 +441,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,6 +452,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,6 +463,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -469,6 +494,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,9 +528,6 @@
     <t>冲锋面罩</t>
   </si>
   <si>
-    <t>暴击率提升15%,每当暴击便回复2点生命值。</t>
-  </si>
-  <si>
     <t>圣灵之源</t>
   </si>
   <si>
@@ -572,6 +596,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,6 +607,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -592,6 +618,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -607,6 +634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -617,6 +645,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,6 +670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,6 +681,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,6 +697,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -676,6 +708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -718,6 +751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,6 +762,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,6 +838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,6 +849,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,6 +860,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -916,6 +954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -926,6 +965,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,18 +1002,16 @@
   <si>
     <t>当你使用至少5费的卡牌时获得1张”活化冰晶“，持续20秒</t>
   </si>
+  <si>
+    <t>暴击率提升15%,每当暴击便回复1点生命值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,155 +1023,27 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,194 +1062,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1347,251 +1071,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1611,61 +1093,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1923,23 +1361,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1956,7 +1393,7 @@
     <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +1455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +1517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2109,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2135,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -2170,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2205,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -2237,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:17">
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -2260,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:17">
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -2295,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:17">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -2330,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:17">
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>14</v>
       </c>
@@ -2368,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:17">
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -2403,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:17">
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -2441,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:17">
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -2476,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:17">
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -2511,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:17">
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -2546,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:17">
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -2581,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:17">
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>23</v>
       </c>
@@ -2616,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:17">
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -2651,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:17">
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -2686,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:17">
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -2724,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:17">
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -2759,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:17">
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -2798,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:17">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>30</v>
       </c>
@@ -2834,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:17">
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>31</v>
       </c>
@@ -2869,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:17">
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>32</v>
       </c>
@@ -2904,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:17">
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>33</v>
       </c>
@@ -2912,7 +2349,7 @@
         <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>45</v>
@@ -2939,15 +2376,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:17">
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -2974,15 +2411,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:17">
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
@@ -3009,15 +2446,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:17">
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -3044,15 +2481,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:17">
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -3079,15 +2516,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -3114,15 +2551,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:17">
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -3149,15 +2586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:17">
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -3184,15 +2621,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -3219,15 +2656,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -3251,15 +2688,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -3286,15 +2723,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -3321,15 +2758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>45</v>
@@ -3356,15 +2793,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -3391,15 +2828,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -3420,21 +2857,21 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:17">
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -3455,21 +2892,21 @@
         <v>0</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -3496,15 +2933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:17">
+    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -3531,15 +2968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:17">
+    <row r="45" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>45</v>
@@ -3566,15 +3003,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="28.5" spans="1:17">
+    <row r="46" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>45</v>
@@ -3601,15 +3038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:17">
+    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
@@ -3630,21 +3067,21 @@
         <v>2</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:17">
+    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>54</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>45</v>
@@ -3671,15 +3108,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:17">
+    <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>55</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
@@ -3706,15 +3143,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:17">
+    <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>56</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>45</v>
@@ -3741,15 +3178,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:17">
+    <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>57</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>45</v>
@@ -3776,15 +3213,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:17">
+    <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>58</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>45</v>
@@ -3811,15 +3248,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
         <v>147</v>
-      </c>
-      <c r="C53" t="s">
-        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -3846,15 +3283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>60</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>45</v>
@@ -3881,15 +3318,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -3919,15 +3356,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -3957,15 +3394,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:17">
+    <row r="57" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>45</v>
@@ -3992,15 +3429,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:17">
+    <row r="58" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>64</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>45</v>
@@ -4027,15 +3464,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:17">
+    <row r="59" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>65</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>45</v>
@@ -4062,15 +3499,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>66</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>45</v>
@@ -4097,15 +3534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:17">
+    <row r="61" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>45</v>
@@ -4132,15 +3569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:17">
+    <row r="62" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>45</v>
@@ -4167,15 +3604,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:17">
+    <row r="63" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>45</v>
@@ -4196,21 +3633,21 @@
         <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>45</v>
@@ -4228,15 +3665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>45</v>
@@ -4254,15 +3691,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>45</v>
@@ -4280,15 +3717,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>45</v>
@@ -4309,15 +3746,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>45</v>
@@ -4338,15 +3775,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:17">
+    <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>45</v>
@@ -4373,15 +3810,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>45</v>
@@ -4405,15 +3842,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:17">
+    <row r="71" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>45</v>
@@ -4434,21 +3871,21 @@
         <v>1</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q71" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>45</v>
@@ -4475,15 +3912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>45</v>
@@ -4510,15 +3947,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>45</v>
@@ -4542,15 +3979,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>45</v>
@@ -4574,15 +4011,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:17">
+    <row r="76" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>45</v>
@@ -4610,11 +4047,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I76">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="I1:I76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\magic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5656900C-0C61-4E92-9EB4-2D08874FF205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +96,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +106,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,7 +118,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +128,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,7 +152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,7 +162,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,7 +174,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,7 +184,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -210,7 +196,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,7 +206,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +218,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +228,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -282,7 +264,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +274,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -352,7 +332,7 @@
     <t>荆棘之心</t>
   </si>
   <si>
-    <t>格挡时造成6点伤害，但能量上限-2</t>
+    <t>格挡时造成6点伤害，但能量上限-3</t>
   </si>
   <si>
     <t>诅咒之书</t>
@@ -366,7 +346,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -377,7 +356,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -441,7 +419,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -452,7 +429,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,7 +439,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -480,7 +455,7 @@
     <t>小匕首</t>
   </si>
   <si>
-    <t>增加1点战斗外攻击力，但防御力-1</t>
+    <t>增加1点战斗外攻击力，但能量上限-2</t>
   </si>
   <si>
     <t>小圆盾</t>
@@ -494,7 +469,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -505,7 +479,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,6 +501,9 @@
     <t>冲锋面罩</t>
   </si>
   <si>
+    <t>暴击率提升15%,每当暴击便回复1点生命值。</t>
+  </si>
+  <si>
     <t>圣灵之源</t>
   </si>
   <si>
@@ -596,7 +572,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -607,7 +582,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -618,7 +592,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -634,7 +607,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +617,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +641,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -681,7 +651,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,7 +666,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,7 +676,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -751,7 +718,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -762,7 +728,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -838,7 +803,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,7 +813,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -860,7 +823,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -954,7 +916,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,7 +926,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -994,24 +954,26 @@
     <t>火焰领主余烬</t>
   </si>
   <si>
-    <t>[维持3]，每释放4张攻击牌将1张“强化火球术”置入手牌</t>
+    <t>战斗开始后将1张“火焰领主余烬”置入手牌</t>
   </si>
   <si>
     <t>活化宝珠</t>
   </si>
   <si>
     <t>当你使用至少5费的卡牌时获得1张”活化冰晶“，持续20秒</t>
-  </si>
-  <si>
-    <t>暴击率提升15%,每当暴击便回复1点生命值。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,27 +985,155 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,8 +1152,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1071,9 +1347,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1093,17 +1611,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1361,22 +1923,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1393,7 +1956,7 @@
     <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +2018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +2080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1546,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1572,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1607,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1642,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1674,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="2" customFormat="1" spans="1:17">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -1697,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" spans="1:17">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -1732,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" spans="1:17">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -1767,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" spans="1:17">
       <c r="A11" s="2">
         <v>14</v>
       </c>
@@ -1799,13 +2362,13 @@
         <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" spans="1:17">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -1840,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" spans="1:17">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1878,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" spans="1:17">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1913,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" spans="1:17">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -1948,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" spans="1:17">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1983,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" spans="1:17">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -2018,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" spans="1:17">
       <c r="A18" s="2">
         <v>23</v>
       </c>
@@ -2053,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" spans="1:17">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -2088,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" s="2" customFormat="1" spans="1:17">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -2123,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" s="2" customFormat="1" spans="1:17">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -2161,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" s="2" customFormat="1" spans="1:17">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -2196,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="2" customFormat="1" spans="1:17">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -2228,14 +2791,14 @@
       <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="2">
-        <v>-1</v>
+      <c r="N23" s="2">
+        <v>-2</v>
       </c>
       <c r="Q23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="2" customFormat="1" spans="1:17">
       <c r="A24" s="2">
         <v>30</v>
       </c>
@@ -2271,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="2" customFormat="1" spans="1:17">
       <c r="A25" s="2">
         <v>31</v>
       </c>
@@ -2306,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="2" customFormat="1" spans="1:17">
       <c r="A26" s="2">
         <v>32</v>
       </c>
@@ -2341,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="2" customFormat="1" spans="1:17">
       <c r="A27" s="2">
         <v>33</v>
       </c>
@@ -2349,7 +2912,7 @@
         <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>45</v>
@@ -2376,15 +2939,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" spans="1:17">
       <c r="A28" s="2">
         <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -2411,15 +2974,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="2" customFormat="1" spans="1:17">
       <c r="A29" s="2">
         <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
@@ -2446,15 +3009,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" spans="1:17">
       <c r="A30" s="2">
         <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -2481,15 +3044,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" s="2" customFormat="1" spans="1:17">
       <c r="A31" s="2">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -2516,15 +3079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -2551,15 +3114,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" s="2" customFormat="1" spans="1:17">
       <c r="A33" s="2">
         <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -2586,15 +3149,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" s="2" customFormat="1" spans="1:17">
       <c r="A34" s="2">
         <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -2621,15 +3184,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -2656,15 +3219,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -2688,15 +3251,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -2723,15 +3286,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" s="1" customFormat="1" spans="1:17">
       <c r="A38" s="1">
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -2758,15 +3321,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>45</v>
@@ -2793,15 +3356,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>46</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -2828,15 +3391,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -2857,21 +3420,21 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" s="2" customFormat="1" spans="1:17">
       <c r="A42" s="2">
         <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -2892,21 +3455,21 @@
         <v>0</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" s="1" customFormat="1" spans="1:17">
       <c r="A43" s="1">
         <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -2933,15 +3496,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" s="2" customFormat="1" spans="1:17">
       <c r="A44" s="2">
         <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -2968,15 +3531,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" s="2" customFormat="1" spans="1:17">
       <c r="A45" s="2">
         <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>45</v>
@@ -3003,15 +3566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" s="2" customFormat="1" ht="28.5" spans="1:17">
       <c r="A46" s="2">
         <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>45</v>
@@ -3038,15 +3601,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" s="2" customFormat="1" spans="1:17">
       <c r="A47" s="2">
         <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
@@ -3067,21 +3630,21 @@
         <v>2</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" s="2" customFormat="1" spans="1:17">
       <c r="A48" s="2">
         <v>54</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>45</v>
@@ -3108,15 +3671,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" s="2" customFormat="1" spans="1:17">
       <c r="A49" s="2">
         <v>55</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
@@ -3143,15 +3706,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" s="2" customFormat="1" spans="1:17">
       <c r="A50" s="2">
         <v>56</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>45</v>
@@ -3178,15 +3741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" s="2" customFormat="1" spans="1:17">
       <c r="A51" s="2">
         <v>57</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>45</v>
@@ -3213,15 +3776,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" s="2" customFormat="1" spans="1:17">
       <c r="A52" s="2">
         <v>58</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>45</v>
@@ -3248,15 +3811,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -3283,15 +3846,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>60</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>45</v>
@@ -3318,15 +3881,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -3356,15 +3919,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -3394,15 +3957,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" s="2" customFormat="1" spans="1:17">
       <c r="A57" s="2">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>45</v>
@@ -3429,15 +3992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" s="2" customFormat="1" spans="1:17">
       <c r="A58" s="2">
         <v>64</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>45</v>
@@ -3464,15 +4027,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" s="2" customFormat="1" spans="1:17">
       <c r="A59" s="2">
         <v>65</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>45</v>
@@ -3499,15 +4062,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>66</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>45</v>
@@ -3534,15 +4097,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" s="2" customFormat="1" spans="1:17">
       <c r="A61" s="2">
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>45</v>
@@ -3569,15 +4132,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" s="2" customFormat="1" spans="1:17">
       <c r="A62">
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>45</v>
@@ -3604,15 +4167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" s="2" customFormat="1" spans="1:17">
       <c r="A63" s="2">
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>45</v>
@@ -3633,21 +4196,21 @@
         <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="2">
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>45</v>
@@ -3665,15 +4228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="2">
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>45</v>
@@ -3691,15 +4254,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19">
       <c r="A66" s="2">
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>45</v>
@@ -3717,15 +4280,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" s="2">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>45</v>
@@ -3746,15 +4309,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" s="2">
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>45</v>
@@ -3775,15 +4338,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" s="2" customFormat="1" spans="1:17">
       <c r="A69" s="2">
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>45</v>
@@ -3810,15 +4373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>45</v>
@@ -3842,15 +4405,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" s="2" customFormat="1" spans="1:17">
       <c r="A71" s="2">
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>45</v>
@@ -3871,21 +4434,21 @@
         <v>1</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="2">
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>45</v>
@@ -3912,15 +4475,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" s="2">
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>45</v>
@@ -3947,15 +4510,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>45</v>
@@ -3979,15 +4542,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>45</v>
@@ -3995,8 +4558,8 @@
       <c r="E75">
         <v>330</v>
       </c>
-      <c r="F75" s="2">
-        <v>3173</v>
+      <c r="F75">
+        <v>3207</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -4011,15 +4574,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" s="2" customFormat="1" spans="1:17">
       <c r="A76" s="2">
         <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>45</v>
@@ -4047,9 +4610,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="I1:I76">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -387,10 +387,10 @@
     <t>每当打出咒术牌时对敌人施加1层[易伤]，但每隔12秒会受到“疑惑”</t>
   </si>
   <si>
-    <t>以攻为守</t>
-  </si>
-  <si>
-    <t>造成伤害时，获得1护甲</t>
+    <t>防御手册</t>
+  </si>
+  <si>
+    <t>战斗开始后的20秒内将2张“防御训练“置入手牌</t>
   </si>
   <si>
     <t>动能回收器</t>
@@ -833,13 +833,13 @@
     <t>蚀寒骨盾</t>
   </si>
   <si>
-    <t>受到伤害时给敌人1层[易伤]与1层[冰冷]</t>
+    <t>受到伤害时给敌人2层[易伤]与1层[冰冷]</t>
   </si>
   <si>
     <t>急救包</t>
   </si>
   <si>
-    <t>本场战斗受到的总伤害超过14时,你将回复4点生命值,每场战斗最多触发一次</t>
+    <t>本场战斗受到的总伤害超过12时,你将回复4点生命值,每场战斗最多触发一次</t>
   </si>
   <si>
     <t>熔铸之铁</t>
@@ -939,10 +939,13 @@
     <t>当你使用至少5费的卡牌时回复1点生命</t>
   </si>
   <si>
-    <t>裂炎斧</t>
-  </si>
-  <si>
-    <t>战斗开始后将2张“炎崩”置入手牌</t>
+    <t>裂变短杖</t>
+  </si>
+  <si>
+    <t>战斗开始后将2张“裂变”置入手牌</t>
+  </si>
+  <si>
+    <t>10,11</t>
   </si>
   <si>
     <t>沸腾手杖</t>
@@ -968,10 +971,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -989,25 +992,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,13 +1038,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1036,75 +1045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,10 +1067,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1154,6 +1157,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1166,7 +1211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,13 +1235,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1283,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,127 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,48 +1348,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1445,16 +1406,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1932,11 +1935,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="$A59:$XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4503,8 +4506,8 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="5">
-        <v>11</v>
+      <c r="J73" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -4515,10 +4518,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>45</v>
@@ -4547,10 +4550,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>45</v>
@@ -4579,10 +4582,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>45</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -971,10 +971,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1006,6 +1006,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1021,86 +1114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,26 +1129,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1157,55 +1157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,61 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1205,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,25 +1277,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,13 +1319,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,21 +1348,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1383,11 +1368,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,41 +1443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,10 +1454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1935,11 +1935,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="$A59:$XFD59"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -253,7 +253,7 @@
     <t>能量块</t>
   </si>
   <si>
-    <t>每使用1张手牌，便回复0.5点能量，暴击率+5%</t>
+    <t>每使用1张手牌，便回复0.5点能量</t>
   </si>
   <si>
     <t>Icon_Ability_4</t>
@@ -519,13 +519,13 @@
     <t>战斗意志</t>
   </si>
   <si>
-    <t>每打出2张攻击牌获得1层[兴奋]</t>
+    <t>每打出3张攻击牌获得1层[兴奋]</t>
   </si>
   <si>
     <t>力量之铸</t>
   </si>
   <si>
-    <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8秒，并移除3层忏悔</t>
+    <t>每当忏悔叠加至5层时，你的攻击力提高2，持续8秒，并移除2层忏悔</t>
   </si>
   <si>
     <t>寒冰魔杖</t>
@@ -686,7 +686,7 @@
     <t>纳尔之心</t>
   </si>
   <si>
-    <t>战斗开始后的20秒内将2张“纳尔的怒火“置入手牌</t>
+    <t>战斗开始后的20秒内将2张“纳尔的怒火“置入手牌（移除忏悔根据层数造成伤害）</t>
   </si>
   <si>
     <t>狂热圣印</t>
@@ -936,7 +936,7 @@
     <t>火树苗</t>
   </si>
   <si>
-    <t>当你使用至少5费的卡牌时回复1点生命</t>
+    <t>当你使用至少5费的卡牌时回复2点生命</t>
   </si>
   <si>
     <t>裂变短杖</t>
@@ -971,10 +971,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -993,7 +993,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,11 +1028,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,23 +1104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,83 +1130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,25 +1157,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,31 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,19 +1265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,37 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,13 +1301,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,13 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,8 +1369,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,26 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1425,17 +1420,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,8 +1432,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,10 +1454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,7 +1939,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2105,9 +2105,6 @@
       <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P3">
-        <v>0.05</v>
-      </c>
       <c r="Q3">
         <v>1</v>
       </c>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -972,8 +972,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -992,23 +992,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,6 +1018,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,6 +1054,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,13 +1081,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1073,66 +1129,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1157,7 +1157,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,19 +1277,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,109 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,37 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,17 +1351,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1371,21 +1365,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,25 +1385,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,16 +1433,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1935,11 +1935,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2097,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2149,7 +2149,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F5" s="1">
         <v>2047</v>
@@ -2274,7 +2274,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F9" s="2">
         <v>3001</v>
@@ -2309,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F10" s="2">
         <v>3002</v>
@@ -2344,7 +2344,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F11" s="2">
         <v>3003</v>
@@ -2382,7 +2382,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F12" s="2">
         <v>3004</v>
@@ -2417,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F13" s="2">
         <v>3005</v>
@@ -2455,7 +2455,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F14" s="2">
         <v>3006</v>
@@ -2490,7 +2490,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F15" s="2">
         <v>3007</v>
@@ -2525,7 +2525,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F16" s="2">
         <v>3008</v>
@@ -2560,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F17" s="2">
         <v>2022</v>
@@ -2595,7 +2595,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F18" s="5">
         <v>1013</v>
@@ -2700,7 +2700,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F21" s="2">
         <v>3021</v>
@@ -3023,7 +3023,7 @@
         <v>45</v>
       </c>
       <c r="E30" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F30" s="5">
         <v>2025</v>
@@ -3163,7 +3163,7 @@
         <v>45</v>
       </c>
       <c r="E34" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F34" s="5">
         <v>1044</v>
@@ -3233,7 +3233,7 @@
         <v>45</v>
       </c>
       <c r="E36">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3265,7 +3265,7 @@
         <v>45</v>
       </c>
       <c r="E37">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3300,7 +3300,7 @@
         <v>45</v>
       </c>
       <c r="E38" s="1">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F38" s="1">
         <v>2508</v>
@@ -3335,7 +3335,7 @@
         <v>45</v>
       </c>
       <c r="E39" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F39" s="2">
         <v>2509</v>
@@ -3370,7 +3370,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F40" s="2">
         <v>2510</v>
@@ -3405,7 +3405,7 @@
         <v>45</v>
       </c>
       <c r="E41" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F41">
         <v>2513</v>
@@ -3475,7 +3475,7 @@
         <v>45</v>
       </c>
       <c r="E43" s="1">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F43" s="1">
         <v>3048</v>
@@ -3510,7 +3510,7 @@
         <v>45</v>
       </c>
       <c r="E44" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F44" s="2">
         <v>3049</v>
@@ -3545,7 +3545,7 @@
         <v>45</v>
       </c>
       <c r="E45" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F45" s="2">
         <v>3051</v>
@@ -3580,7 +3580,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F46" s="2">
         <v>3052</v>
@@ -3615,7 +3615,7 @@
         <v>45</v>
       </c>
       <c r="E47" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F47" s="2">
         <v>3053</v>
@@ -3650,7 +3650,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F48" s="2">
         <v>3054</v>
@@ -3685,7 +3685,7 @@
         <v>45</v>
       </c>
       <c r="E49" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F49" s="2">
         <v>3055</v>
@@ -3720,7 +3720,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F50" s="2">
         <v>3056</v>
@@ -3755,7 +3755,7 @@
         <v>45</v>
       </c>
       <c r="E51" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F51" s="2">
         <v>3057</v>
@@ -3790,7 +3790,7 @@
         <v>45</v>
       </c>
       <c r="E52" s="2">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="F52" s="2">
         <v>3058</v>
@@ -3860,7 +3860,7 @@
         <v>45</v>
       </c>
       <c r="E54">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F54" s="9">
         <v>2529</v>
@@ -3895,7 +3895,7 @@
         <v>48</v>
       </c>
       <c r="E55">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F55">
         <v>2047</v>
@@ -3933,7 +3933,7 @@
         <v>48</v>
       </c>
       <c r="E56">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F56">
         <v>2047</v>
@@ -4006,7 +4006,7 @@
         <v>45</v>
       </c>
       <c r="E58" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F58" s="2">
         <v>3128</v>
@@ -4041,7 +4041,7 @@
         <v>45</v>
       </c>
       <c r="E59" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F59" s="2">
         <v>3129</v>
@@ -4419,7 +4419,7 @@
         <v>45</v>
       </c>
       <c r="E71" s="2">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F71" s="2">
         <v>3169</v>
@@ -4556,7 +4556,7 @@
         <v>45</v>
       </c>
       <c r="E75">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="F75">
         <v>3207</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\magic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF839D-D3F5-46ED-8527-0153A46115DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -106,6 +113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,6 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,6 +137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,6 +162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,6 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,6 +186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,6 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,6 +221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,6 +234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,6 +245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -274,6 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,9 +340,6 @@
     <t>沉重之斧</t>
   </si>
   <si>
-    <t>战斗外攻击力+3，但所有牌消耗增加1</t>
-  </si>
-  <si>
     <t>琉璃甲</t>
   </si>
   <si>
@@ -338,14 +355,12 @@
     <t>诅咒之书</t>
   </si>
   <si>
-    <t>你的暴击率提高25%，但战斗中每3秒都会失去生命</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,6 +435,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,6 +446,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,6 +457,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -469,6 +488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +499,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -489,27 +510,12 @@
     <t>水晶剑</t>
   </si>
   <si>
-    <t>暴击率提高15%,任意技能造成暴击后产生1层[兴奋]效果</t>
-  </si>
-  <si>
     <t>英勇斗篷</t>
   </si>
   <si>
-    <t>暴击率提升15%,每当暴击便回复0.5点能量。</t>
-  </si>
-  <si>
     <t>冲锋面罩</t>
   </si>
   <si>
-    <t>暴击率提升15%,每当暴击便回复1点生命值。</t>
-  </si>
-  <si>
-    <t>圣灵之源</t>
-  </si>
-  <si>
-    <t>每打出3张祝福牌则生成一张[圣化]置入手牌</t>
-  </si>
-  <si>
     <t>神圣法典</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
     <t>魔龙之眼</t>
   </si>
   <si>
-    <t>能量回复速度提高1点，但攻击力-1</t>
-  </si>
-  <si>
     <t>暴徒刻印</t>
   </si>
   <si>
@@ -572,6 +575,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,6 +586,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -592,6 +597,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -602,14 +608,445 @@
     <t>不完全保险装置</t>
   </si>
   <si>
+    <t>蓄水池</t>
+  </si>
+  <si>
+    <t>本场战斗受到的总伤害超过18时,你将回复8点生命值,每场战斗最多触发一次</t>
+  </si>
+  <si>
+    <t>全副武装</t>
+  </si>
+  <si>
+    <t>当你的护甲层数大于10时,你的战斗外攻击力提高2点</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4</t>
+    </r>
+  </si>
+  <si>
+    <t>贴片装甲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本场战斗获得的总护甲数达到24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时,立即回复10点能量值,每场战斗最多触发一次</t>
+    </r>
+  </si>
+  <si>
+    <t>纳尔之心</t>
+  </si>
+  <si>
+    <t>战斗开始后的20秒内将2张“纳尔的怒火“置入手牌（移除忏悔根据层数造成伤害）</t>
+  </si>
+  <si>
+    <t>狂热圣印</t>
+  </si>
+  <si>
+    <t>特里克之眼</t>
+  </si>
+  <si>
+    <t>战斗开始6秒后能量上限降低7点持续8秒，但会获得3点攻击力至战斗结束</t>
+  </si>
+  <si>
+    <t>神王之手</t>
+  </si>
+  <si>
+    <t>每打出2张祝福牌会受到愤怒之光指引，若敌人至少有3层[忏悔]则造成7点伤害并移除1层[忏悔]</t>
+  </si>
+  <si>
+    <t>冲击战刃</t>
+  </si>
+  <si>
+    <t>战斗中每8秒对敌人施加1层[崩解]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,11</t>
+    </r>
+  </si>
+  <si>
+    <t>自然铠甲</t>
+  </si>
+  <si>
+    <t>单次造成的伤害大于等于16点时回复6点生命，战斗开始20秒后清除此状态</t>
+  </si>
+  <si>
+    <t>魔血剑</t>
+  </si>
+  <si>
+    <t>战斗中每隔6秒痛饮狂血，若有5层[兴奋]则将一张[狂躁之力*]置入手牌</t>
+  </si>
+  <si>
+    <t>天穹之凯</t>
+  </si>
+  <si>
+    <t>战斗开始后你的防御力+2，所有卡牌消耗-1，持续9秒</t>
+  </si>
+  <si>
+    <t>不屈之盾</t>
+  </si>
+  <si>
+    <t>你的护甲的持续时间延长4秒</t>
+  </si>
+  <si>
+    <t>海兽脊骨</t>
+  </si>
+  <si>
+    <t>每打出2张防御牌给与敌人1层[易伤]</t>
+  </si>
+  <si>
+    <t>炎魔精魄</t>
+  </si>
+  <si>
+    <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
+  </si>
+  <si>
+    <t>爆炎魔杖</t>
+  </si>
+  <si>
+    <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
+  </si>
+  <si>
+    <t>护身符</t>
+  </si>
+  <si>
+    <t>最大生命值+15</t>
+  </si>
+  <si>
+    <t>鹰盾</t>
+  </si>
+  <si>
+    <t>增加2点防御力</t>
+  </si>
+  <si>
+    <t>透骨项链</t>
+  </si>
+  <si>
+    <t>每使用2张咒术牌对敌人施加2层[冰冷]</t>
+  </si>
+  <si>
+    <t>幽魂之戒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每当[冰冷]叠加至10层时，回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点生命</t>
+    </r>
+  </si>
+  <si>
+    <t>蚀寒骨盾</t>
+  </si>
+  <si>
+    <t>急救包</t>
+  </si>
+  <si>
+    <t>本场战斗受到的总伤害超过12时,你将回复4点生命值,每场战斗最多触发一次</t>
+  </si>
+  <si>
+    <t>熔铸之铁</t>
+  </si>
+  <si>
+    <t>护甲的持续时间延长1秒</t>
+  </si>
+  <si>
+    <t>束缚绳索</t>
+  </si>
+  <si>
+    <t>战斗开始后将一张[迟缓]置入手牌</t>
+  </si>
+  <si>
+    <t>不稳定水晶</t>
+  </si>
+  <si>
+    <t>第一次对敌人造成伤害后回复5点能量，每场战斗只触发一次</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>双生水晶</t>
+  </si>
+  <si>
+    <t>触发补牌的最小手牌数+1</t>
+  </si>
+  <si>
+    <t>小齿轮</t>
+  </si>
+  <si>
+    <t>补牌数+1</t>
+  </si>
+  <si>
+    <t>润滑油</t>
+  </si>
+  <si>
+    <t>初始补牌数+2</t>
+  </si>
+  <si>
+    <t>黏糊的蛛丝</t>
+  </si>
+  <si>
+    <t>补牌数-2，攻击力+3</t>
+  </si>
+  <si>
+    <t>大粗筒</t>
+  </si>
+  <si>
+    <t>补牌数-1，暴击率+15%</t>
+  </si>
+  <si>
+    <t>无畏重盾</t>
+  </si>
+  <si>
+    <t>每隔7秒将一张“盾击”置入手牌，受到伤害时会取消此状态</t>
+  </si>
+  <si>
+    <t>压迫者重锤</t>
+  </si>
+  <si>
+    <t>当你在战斗中第一次获得攻击力时，给与敌人3层[易伤]</t>
+  </si>
+  <si>
+    <t>冷酷之心</t>
+  </si>
+  <si>
+    <t>战斗中第12秒时若敌人至少有3层[易伤]，则将一张“冷酷痛击”置入手牌</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <t>火树苗</t>
+  </si>
+  <si>
+    <t>当你使用至少5费的卡牌时回复2点生命</t>
+  </si>
+  <si>
+    <t>裂变短杖</t>
+  </si>
+  <si>
+    <t>战斗开始后将2张“裂变”置入手牌</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>沸腾手杖</t>
+  </si>
+  <si>
+    <t>火焰领主余烬</t>
+  </si>
+  <si>
+    <t>战斗开始后将1张“火焰领主余烬”置入手牌</t>
+  </si>
+  <si>
+    <t>活化宝珠</t>
+  </si>
+  <si>
+    <t>当你使用至少5费的卡牌时获得1张”活化冰晶“，持续20秒</t>
+  </si>
+  <si>
+    <t>打出5张祝福牌后给与敌人1层[伤害加深](每次造成伤害都会使敌人受伤增加),只触发一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴击率提升1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%,每当暴击便回复0.5点能量。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴击率提升1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%,每当暴击便回复1点生命值。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴击率提高11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%,任意技能造成暴击后产生1层[兴奋]效果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你的暴击率提高18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%，但战斗中每3秒都会失去生命</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>单次受到的伤害大于等于12点时将</t>
     </r>
     <r>
@@ -617,34 +1054,44 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1张”躲闪“置入手牌</t>
     </r>
-  </si>
-  <si>
-    <t>蓄水池</t>
-  </si>
-  <si>
-    <t>本场战斗受到的总伤害超过18时,你将回复8点生命值,每场战斗最多触发一次</t>
-  </si>
-  <si>
-    <t>全副武装</t>
-  </si>
-  <si>
-    <t>当你的护甲层数大于10时,你的战斗外攻击力提高2点</t>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时给敌人2层[易伤]与1层[冰冷]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逝者重锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出3张祝福牌则生成一张[愤怒之锤](造成伤害并加临时攻击力)置入手牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始后对敌人施加2层[点燃]并获得4点能量,但在10秒后移除2层[点燃]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>战斗外攻击力+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -654,329 +1101,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,2,3,4</t>
-    </r>
-  </si>
-  <si>
-    <t>贴片装甲</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本场战斗获得的总护甲数达到24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时,立即回复10点能量值,每场战斗最多触发一次</t>
-    </r>
-  </si>
-  <si>
-    <t>纳尔之心</t>
-  </si>
-  <si>
-    <t>战斗开始后的20秒内将2张“纳尔的怒火“置入手牌（移除忏悔根据层数造成伤害）</t>
-  </si>
-  <si>
-    <t>狂热圣印</t>
-  </si>
-  <si>
-    <t>打出5张祝福牌后给与敌人一层[伤害加深]，只触发一次</t>
-  </si>
-  <si>
-    <t>特里克之眼</t>
-  </si>
-  <si>
-    <t>战斗开始6秒后能量上限降低7点持续8秒，但会获得3点攻击力至战斗结束</t>
-  </si>
-  <si>
-    <t>神王之手</t>
-  </si>
-  <si>
-    <t>每打出2张祝福牌会受到愤怒之光指引，若敌人至少有3层[忏悔]则造成7点伤害并移除1层[忏悔]</t>
-  </si>
-  <si>
-    <t>冲击战刃</t>
-  </si>
-  <si>
-    <t>战斗中每8秒对敌人施加1层[崩解]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,11</t>
-    </r>
-  </si>
-  <si>
-    <t>自然铠甲</t>
-  </si>
-  <si>
-    <t>单次造成的伤害大于等于16点时回复6点生命，战斗开始20秒后清除此状态</t>
-  </si>
-  <si>
-    <t>魔血剑</t>
-  </si>
-  <si>
-    <t>战斗中每隔6秒痛饮狂血，若有5层[兴奋]则将一张[狂躁之力*]置入手牌</t>
-  </si>
-  <si>
-    <t>天穹之凯</t>
-  </si>
-  <si>
-    <t>战斗开始后你的防御力+2，所有卡牌消耗-1，持续9秒</t>
-  </si>
-  <si>
-    <t>不屈之盾</t>
-  </si>
-  <si>
-    <t>你的护甲的持续时间延长4秒</t>
-  </si>
-  <si>
-    <t>海兽脊骨</t>
-  </si>
-  <si>
-    <t>每打出2张防御牌给与敌人1层[易伤]</t>
-  </si>
-  <si>
-    <t>炎魔精魄</t>
-  </si>
-  <si>
-    <t>每当点燃造成伤害，回复造成伤害数值的25%</t>
-  </si>
-  <si>
-    <t>爆炎魔杖</t>
-  </si>
-  <si>
-    <t>每当暴击,点燃的伤害时间间隔缩短0.25秒，最多缩短至0.25秒</t>
-  </si>
-  <si>
-    <t>护身符</t>
-  </si>
-  <si>
-    <t>最大生命值+15</t>
-  </si>
-  <si>
-    <t>鹰盾</t>
-  </si>
-  <si>
-    <t>增加2点防御力</t>
-  </si>
-  <si>
-    <t>透骨项链</t>
-  </si>
-  <si>
-    <t>每使用2张咒术牌对敌人施加2层[冰冷]</t>
-  </si>
-  <si>
-    <t>幽魂之戒</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每当[冰冷]叠加至10层时，回复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点生命</t>
-    </r>
-  </si>
-  <si>
-    <t>蚀寒骨盾</t>
-  </si>
-  <si>
-    <t>受到伤害时给敌人2层[易伤]与1层[冰冷]</t>
-  </si>
-  <si>
-    <t>急救包</t>
-  </si>
-  <si>
-    <t>本场战斗受到的总伤害超过12时,你将回复4点生命值,每场战斗最多触发一次</t>
-  </si>
-  <si>
-    <t>熔铸之铁</t>
-  </si>
-  <si>
-    <t>护甲的持续时间延长1秒</t>
-  </si>
-  <si>
-    <t>束缚绳索</t>
-  </si>
-  <si>
-    <t>战斗开始后将一张[迟缓]置入手牌</t>
-  </si>
-  <si>
-    <t>不稳定水晶</t>
-  </si>
-  <si>
-    <t>第一次对敌人造成伤害后回复5点能量，每场战斗只触发一次</t>
-  </si>
-  <si>
-    <t>1,3,4</t>
-  </si>
-  <si>
-    <t>双生水晶</t>
-  </si>
-  <si>
-    <t>触发补牌的最小手牌数+1</t>
-  </si>
-  <si>
-    <t>小齿轮</t>
-  </si>
-  <si>
-    <t>补牌数+1</t>
-  </si>
-  <si>
-    <t>润滑油</t>
-  </si>
-  <si>
-    <t>初始补牌数+2</t>
-  </si>
-  <si>
-    <t>黏糊的蛛丝</t>
-  </si>
-  <si>
-    <t>补牌数-2，攻击力+3</t>
-  </si>
-  <si>
-    <t>大粗筒</t>
-  </si>
-  <si>
-    <t>补牌数-1，暴击率+15%</t>
-  </si>
-  <si>
-    <t>无畏重盾</t>
-  </si>
-  <si>
-    <t>每隔7秒将一张“盾击”置入手牌，受到伤害时会取消此状态</t>
-  </si>
-  <si>
-    <t>压迫者重锤</t>
-  </si>
-  <si>
-    <t>当你在战斗中第一次获得攻击力时，给与敌人3层[易伤]</t>
-  </si>
-  <si>
-    <t>冷酷之心</t>
-  </si>
-  <si>
-    <t>战斗中第12秒时若敌人至少有3层[易伤]，则将一张“冷酷痛击”置入手牌</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>火树苗</t>
-  </si>
-  <si>
-    <t>当你使用至少5费的卡牌时回复2点生命</t>
-  </si>
-  <si>
-    <t>裂变短杖</t>
-  </si>
-  <si>
-    <t>战斗开始后将2张“裂变”置入手牌</t>
-  </si>
-  <si>
-    <t>10,11</t>
-  </si>
-  <si>
-    <t>沸腾手杖</t>
-  </si>
-  <si>
-    <t>战斗开始后对敌人施加2层[点燃]并获得4点能量,但在10秒后移除3层[点燃]</t>
-  </si>
-  <si>
-    <t>火焰领主余烬</t>
-  </si>
-  <si>
-    <t>战斗开始后将1张“火焰领主余烬”置入手牌</t>
-  </si>
-  <si>
-    <t>活化宝珠</t>
-  </si>
-  <si>
-    <t>当你使用至少5费的卡牌时获得1张”活化冰晶“，持续20秒</t>
+      <t>，但所有牌消耗增加1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量回复速度提高1点，但攻击力-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,155 +1126,35 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,194 +1173,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1350,253 +1182,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1613,62 +1203,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1926,23 +1483,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
@@ -1959,7 +1515,7 @@
     <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +1577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +1639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2109,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2135,42 +1691,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="1">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>500</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>2047</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2205,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -2237,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:17">
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -2260,15 +1816,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:17">
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
+      <c r="C9" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>45</v>
@@ -2295,15 +1851,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:17">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>45</v>
@@ -2330,15 +1886,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:17">
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>45</v>
@@ -2368,50 +1924,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:17">
-      <c r="A12" s="2">
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2">
-        <v>500</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3004</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:17">
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>45</v>
@@ -2441,15 +1997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:17">
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
@@ -2476,15 +2032,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:17">
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
@@ -2511,15 +2067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:17">
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
@@ -2546,15 +2102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:17">
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>45</v>
@@ -2581,15 +2137,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:17">
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>45</v>
@@ -2616,15 +2172,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:17">
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
@@ -2651,15 +2207,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:17">
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>26</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>45</v>
@@ -2686,15 +2242,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:17">
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>45</v>
@@ -2724,15 +2280,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:17">
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>28</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>45</v>
@@ -2759,15 +2315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:17">
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
@@ -2798,15 +2354,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:17">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>45</v>
@@ -2825,129 +2381,129 @@
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>31</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1">
+        <v>220</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1024</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:17">
-      <c r="A25" s="2">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1">
+        <v>220</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1028</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1">
         <v>220</v>
       </c>
-      <c r="F25" s="5">
-        <v>1024</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="F27" s="1">
+        <v>1040</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J27" s="4">
         <v>3</v>
       </c>
-      <c r="Q25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:17">
-      <c r="A26" s="2">
-        <v>32</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="2">
-        <v>220</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1028</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:17">
-      <c r="A27" s="2">
-        <v>33</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2">
-        <v>220</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1040</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:17">
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>34</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>96</v>
+      <c r="B28" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -2974,15 +2530,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:17">
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
@@ -3009,15 +2565,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:17">
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -3044,15 +2600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:17">
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -3079,15 +2635,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -3114,15 +2670,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:17">
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -3149,15 +2705,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:17">
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -3184,15 +2740,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -3219,15 +2775,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -3251,15 +2807,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -3277,8 +2833,9 @@
         <v>42</v>
       </c>
       <c r="K37">
-        <v>-1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37">
         <v>1</v>
       </c>
@@ -3286,50 +2843,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:17">
-      <c r="A38" s="1">
+    <row r="38" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>44</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="B38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2">
         <v>500</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>2508</v>
       </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>45</v>
@@ -3356,15 +2913,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -3391,15 +2948,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -3420,21 +2977,21 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:17">
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -3455,56 +3012,56 @@
         <v>0</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Q42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:17">
-      <c r="A43" s="1">
+    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>49</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="B43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="2">
         <v>500</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>3048</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
         <v>4</v>
       </c>
-      <c r="Q43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:17">
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -3531,15 +3088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:17">
+    <row r="45" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>45</v>
@@ -3566,15 +3123,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="28.5" spans="1:17">
+    <row r="46" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>45</v>
@@ -3601,15 +3158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:17">
+    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
@@ -3630,21 +3187,21 @@
         <v>2</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:17">
+    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>54</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>45</v>
@@ -3671,15 +3228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:17">
+    <row r="49" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>55</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
@@ -3706,15 +3263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:17">
+    <row r="50" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>56</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>45</v>
@@ -3741,15 +3298,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:17">
+    <row r="51" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>57</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>45</v>
@@ -3776,15 +3333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:17">
+    <row r="52" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>58</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>45</v>
@@ -3811,15 +3368,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -3846,15 +3403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>60</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>45</v>
@@ -3881,15 +3438,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -3919,15 +3476,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -3957,15 +3514,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:17">
+    <row r="57" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>45</v>
@@ -3992,15 +3549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:17">
+    <row r="58" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>64</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>45</v>
@@ -4027,15 +3584,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:17">
+    <row r="59" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>65</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>45</v>
@@ -4062,15 +3619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>66</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>45</v>
@@ -4097,15 +3654,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:17">
+    <row r="61" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>45</v>
@@ -4132,15 +3689,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:17">
+    <row r="62" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>45</v>
@@ -4167,15 +3724,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:17">
+    <row r="63" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>45</v>
@@ -4196,21 +3753,21 @@
         <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Q63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>45</v>
@@ -4224,19 +3781,22 @@
       <c r="J64" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="Q64" s="2">
+        <v>1</v>
+      </c>
       <c r="T64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>45</v>
@@ -4250,19 +3810,22 @@
       <c r="J65" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="Q65" s="2">
+        <v>1</v>
+      </c>
       <c r="R65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>45</v>
@@ -4276,19 +3839,22 @@
       <c r="J66" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="Q66" s="2">
+        <v>1</v>
+      </c>
       <c r="S66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>45</v>
@@ -4305,19 +3871,22 @@
       <c r="K67">
         <v>3</v>
       </c>
+      <c r="Q67" s="2">
+        <v>1</v>
+      </c>
       <c r="R67">
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>45</v>
@@ -4331,22 +3900,25 @@
       <c r="J68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="2">
         <v>0.15</v>
       </c>
-      <c r="R68">
+      <c r="Q68" s="2">
+        <v>1</v>
+      </c>
+      <c r="R68" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:17">
+    <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>45</v>
@@ -4373,15 +3945,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>45</v>
@@ -4404,16 +3976,19 @@
       <c r="J70" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="1:17">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>45</v>
@@ -4434,21 +4009,21 @@
         <v>1</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="Q71" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>45</v>
@@ -4475,15 +4050,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>45</v>
@@ -4504,21 +4079,21 @@
         <v>0</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>45</v>
@@ -4541,16 +4116,19 @@
       <c r="J74" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>45</v>
@@ -4573,16 +4151,19 @@
       <c r="J75" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="1:17">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>45</v>
@@ -4610,11 +4191,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I76">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="I1:I76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1057,7 +1057,7 @@
     <t>沸腾手杖</t>
   </si>
   <si>
-    <t>战斗开始后对敌人施加2层[点燃]并获得4点能量,但在10秒后移除2层[点燃]</t>
+    <t>战斗开始后对敌人施加2层[点燃]并获得3点能量,但在10秒后移除2层[点燃]</t>
   </si>
   <si>
     <t>火焰领主余烬</t>
@@ -1077,19 +1077,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,7 +1106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,66 +1117,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1212,6 +1145,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1225,6 +1165,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1235,17 +1228,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1270,7 +1263,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,25 +1401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,127 +1425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,13 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,6 +1481,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1506,23 +1534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,175 +1554,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1718,17 +1711,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -2053,11 +2041,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2385,7 +2373,7 @@
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2490,10 +2478,10 @@
       <c r="A12" s="2">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2514,7 +2502,7 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="2">
@@ -2668,10 +2656,10 @@
       <c r="A17" s="1">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2703,10 +2691,10 @@
       <c r="A18" s="1">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2738,10 +2726,10 @@
       <c r="A19" s="1">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2773,10 +2761,10 @@
       <c r="A20" s="1">
         <v>26</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2808,10 +2796,10 @@
       <c r="A21" s="1">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2846,10 +2834,10 @@
       <c r="A22" s="1">
         <v>28</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2881,10 +2869,10 @@
       <c r="A23" s="1">
         <v>29</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2920,10 +2908,10 @@
       <c r="A24" s="1">
         <v>30</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2956,10 +2944,10 @@
       <c r="A25" s="2">
         <v>31</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2968,7 +2956,7 @@
       <c r="E25" s="2">
         <v>220</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>1024</v>
       </c>
       <c r="G25" s="2">
@@ -2980,7 +2968,7 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>3</v>
       </c>
       <c r="Q25" s="2">
@@ -2991,10 +2979,10 @@
       <c r="A26" s="2">
         <v>32</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3003,7 +2991,7 @@
       <c r="E26" s="2">
         <v>220</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>1028</v>
       </c>
       <c r="G26" s="2">
@@ -3015,7 +3003,7 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>3</v>
       </c>
       <c r="Q26" s="2">
@@ -3026,10 +3014,10 @@
       <c r="A27" s="2">
         <v>33</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3050,7 +3038,7 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>3</v>
       </c>
       <c r="Q27" s="2">
@@ -3061,10 +3049,10 @@
       <c r="A28" s="1">
         <v>34</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3096,10 +3084,10 @@
       <c r="A29" s="1">
         <v>35</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3166,10 +3154,10 @@
       <c r="A31" s="1">
         <v>37</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3201,10 +3189,10 @@
       <c r="A32">
         <v>38</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3376,7 +3364,7 @@
       <c r="B37" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3412,7 +3400,7 @@
       <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3447,7 +3435,7 @@
       <c r="B39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3622,7 +3610,7 @@
       <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3946,7 +3934,7 @@
       <c r="E53">
         <v>550</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="9">
         <v>2528</v>
       </c>
       <c r="G53">
@@ -3981,7 +3969,7 @@
       <c r="E54">
         <v>500</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <v>2529</v>
       </c>
       <c r="G54" s="1">
@@ -4045,7 +4033,7 @@
       <c r="B56" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D56" t="s">
@@ -4153,7 +4141,7 @@
       <c r="B59" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="5" t="s">
         <v>160</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4220,10 +4208,10 @@
       <c r="A61" s="1">
         <v>67</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4255,10 +4243,10 @@
       <c r="A62">
         <v>68</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4290,10 +4278,10 @@
       <c r="A63" s="1">
         <v>69</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>168</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4325,10 +4313,10 @@
       <c r="A64" s="1">
         <v>70</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4354,10 +4342,10 @@
       <c r="A65" s="1">
         <v>71</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4383,10 +4371,10 @@
       <c r="A66" s="1">
         <v>72</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4412,10 +4400,10 @@
       <c r="A67" s="1">
         <v>73</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4444,10 +4432,10 @@
       <c r="A68" s="1">
         <v>74</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4476,10 +4464,10 @@
       <c r="A69" s="1">
         <v>75</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4511,10 +4499,10 @@
       <c r="A70" s="1">
         <v>76</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -4546,7 +4534,7 @@
       <c r="A71" s="1">
         <v>77</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -4581,10 +4569,10 @@
       <c r="A72" s="1">
         <v>78</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4616,10 +4604,10 @@
       <c r="A73" s="1">
         <v>79</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>190</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4651,10 +4639,10 @@
       <c r="A74" s="1">
         <v>80</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4664,7 +4652,7 @@
         <v>220</v>
       </c>
       <c r="F74" s="1">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -4686,10 +4674,10 @@
       <c r="A75" s="1">
         <v>81</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="7" t="s">
         <v>195</v>
       </c>
       <c r="D75" s="1" t="s">

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -355,7 +355,7 @@
     <t>琉璃甲</t>
   </si>
   <si>
-    <t>获得护甲时回复1能量，但受到伤害会被昏迷</t>
+    <t>获得护甲时回复0.5能量，但受到伤害会被昏迷</t>
   </si>
   <si>
     <t>荆棘之心</t>
@@ -425,7 +425,7 @@
     <t>动能回收器</t>
   </si>
   <si>
-    <t>成功格挡时，回复1.5点能量</t>
+    <t>成功格挡时，回复1点能量</t>
   </si>
   <si>
     <t>尖刺外壳</t>
@@ -767,26 +767,7 @@
     <t>贴片装甲</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本场战斗获得的总护甲数达到24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时,立即回复10点能量值,每场战斗最多触发一次</t>
-    </r>
+    <t>本场战斗获得的总护甲数达到24时,立即回复7点能量值,每场战斗最多触发一次</t>
   </si>
   <si>
     <t>纳尔之心</t>
@@ -1002,7 +983,7 @@
     <t>无畏重盾</t>
   </si>
   <si>
-    <t>每隔7秒将一张“盾击”置入手牌，受到伤害时会取消此状态</t>
+    <t>每隔8秒将一张“盾击”置入手牌，受到伤害时会取消此状态</t>
   </si>
   <si>
     <t>压迫者重锤</t>
@@ -1077,10 +1058,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1098,8 +1079,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,11 +1102,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,91 +1177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,8 +1193,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,13 +1244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,25 +1274,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,13 +1322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1334,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,67 +1400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,7 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,11 +1438,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,17 +1498,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,55 +1535,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1572,133 +1553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2045,7 +2026,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2491,7 +2472,7 @@
         <v>500</v>
       </c>
       <c r="F12" s="2">
-        <v>3004</v>
+        <v>3013</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2504,6 +2485,9 @@
       </c>
       <c r="J12" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="P12" s="2">
+        <v>18</v>
       </c>
       <c r="Q12" s="2">
         <v>1</v>
@@ -2957,7 +2941,7 @@
         <v>220</v>
       </c>
       <c r="F25" s="6">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -2970,6 +2954,9 @@
       </c>
       <c r="J25" s="6">
         <v>3</v>
+      </c>
+      <c r="P25" s="2">
+        <v>11</v>
       </c>
       <c r="Q25" s="2">
         <v>1</v>
@@ -2992,7 +2979,7 @@
         <v>220</v>
       </c>
       <c r="F26" s="6">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -3005,6 +2992,9 @@
       </c>
       <c r="J26" s="6">
         <v>3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>13</v>
       </c>
       <c r="Q26" s="2">
         <v>1</v>
@@ -3040,6 +3030,9 @@
       </c>
       <c r="J27" s="6">
         <v>3</v>
+      </c>
+      <c r="P27" s="2">
+        <v>13</v>
       </c>
       <c r="Q27" s="2">
         <v>1</v>
@@ -4451,7 +4444,7 @@
         <v>42</v>
       </c>
       <c r="P68" s="1">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="Q68" s="1">
         <v>1</v>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -1058,10 +1058,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1079,17 +1079,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,8 +1093,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,7 +1117,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,36 +1125,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,14 +1147,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1200,24 +1170,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,7 +1244,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,31 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,31 +1400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,67 +1412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,19 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,6 +1435,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1468,36 +1527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1506,45 +1535,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1553,133 +1553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2022,11 +2022,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="$A68:$XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Client/Assets/Data/Ability.xlsx
+++ b/Client/Assets/Data/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1058,10 +1058,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1087,21 +1087,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1115,35 +1100,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1155,15 +1123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1178,17 +1139,34 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,16 +1179,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,6 +1211,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,7 +1244,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,31 +1346,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,127 +1388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,6 +1416,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1438,11 +1438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,27 +1468,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1491,8 +1480,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,26 +1516,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,10 +1541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1553,133 +1553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2022,11 +2022,11 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="$A68:$XFD68"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>42</v>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="6">
         <v>3</v>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="4">
         <v>4</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="4">
         <v>4</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="4">
         <v>4</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="4">
         <v>9</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="4">
         <v>9</v>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="4">
         <v>11</v>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>123</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4">
         <v>9</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>42</v>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>42</v>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>169</v>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4">
         <v>2</v>
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>42</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="4">
         <v>11</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>191</v>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="4">
         <v>11</v>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="4">
         <v>9</v>
